--- a/結果/平板曲げ剛性/L_20/L_20_result.xlsx
+++ b/結果/平板曲げ剛性/L_20/L_20_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E305"/>
+  <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>L_20_1pass</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>L_20_3pass</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +459,31 @@
           <t>固有角変形(θy*)</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>固有縦収縮(δx*)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>固有横収縮(δy*)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>固有角変形(θx*)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>固有角変形(θy*)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -471,6 +501,21 @@
       <c r="E3" t="n">
         <v>-0.002225497195344709</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.0003776029985609475</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.0007359847281595116</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.002010927151946816</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.005170270710298843</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -488,6 +533,21 @@
       <c r="E4" t="n">
         <v>-0.002749453511576595</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.0005763779778851732</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.0008920482350440962</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.003215832581192136</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.005336604407425454</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -505,6 +565,21 @@
       <c r="E5" t="n">
         <v>-0.003409253675123885</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.0008382544063445721</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.001124326252929639</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.00405316732477348</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.00624055764254455</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -522,6 +597,21 @@
       <c r="E6" t="n">
         <v>-0.003735290766271726</v>
       </c>
+      <c r="G6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.001010606384346859</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.001265408820895095</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.004403581060375806</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.00679500118529307</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -539,6 +629,21 @@
       <c r="E7" t="n">
         <v>-0.004015888814135961</v>
       </c>
+      <c r="G7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.0009752752322648618</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.001381811943814123</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.003709063258748533</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.007367855054900204</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -556,6 +661,21 @@
       <c r="E8" t="n">
         <v>-0.004188816230642918</v>
       </c>
+      <c r="G8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.0009623573643212397</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.001453550147693117</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.003421024882433032</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.007692814650523088</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -573,6 +693,21 @@
       <c r="E9" t="n">
         <v>-0.004371669556005086</v>
       </c>
+      <c r="G9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.000928680149622487</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.001534961668919379</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.003009981788810749</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.008109946922591035</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -590,6 +725,21 @@
       <c r="E10" t="n">
         <v>-0.004469631051481636</v>
       </c>
+      <c r="G10" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.0009640480227511752</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.001585902405808824</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.003039569817039813</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.008340768506044425</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -607,6 +757,21 @@
       <c r="E11" t="n">
         <v>-0.004603246658568441</v>
       </c>
+      <c r="G11" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.0009603391779714262</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.001652166629827053</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.002768660973275283</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.008694272288963925</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -624,6 +789,21 @@
       <c r="E12" t="n">
         <v>-0.004664638789895463</v>
       </c>
+      <c r="G12" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.001000890453692779</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.001691329392560955</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.002838664392315649</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.008868792429080329</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -641,6 +821,21 @@
       <c r="E13" t="n">
         <v>-0.004767456788141749</v>
       </c>
+      <c r="G13" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.0009957167187748055</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.001746055326742851</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.002591234334358663</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.009170396320947273</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -658,6 +853,21 @@
       <c r="E14" t="n">
         <v>-0.004804385216184768</v>
       </c>
+      <c r="G14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.00103139829722807</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.001775457885692367</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.002660730629876245</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.009303239431050922</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -675,6 +885,21 @@
       <c r="E15" t="n">
         <v>-0.004885213842337279</v>
       </c>
+      <c r="G15" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.001022008212149803</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.001822583541850441</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.002429701883150808</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.009562558670944668</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -692,6 +917,21 @@
       <c r="E16" t="n">
         <v>-0.004905361930846864</v>
       </c>
+      <c r="G16" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.001052116299564783</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.001846909640362496</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.002504857471911353</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.009663983635563578</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -709,6 +949,21 @@
       <c r="E17" t="n">
         <v>-0.004971935334530484</v>
       </c>
+      <c r="G17" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.001041141068416561</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.001887949081160996</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.002288744911157666</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.009888743176098166</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -726,6 +981,21 @@
       <c r="E18" t="n">
         <v>-0.004982580028507966</v>
       </c>
+      <c r="G18" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.001070129057950196</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.001906874975708039</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.002363359655205352</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.009968302453956392</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -743,6 +1013,21 @@
       <c r="E19" t="n">
         <v>-0.005038308264791781</v>
       </c>
+      <c r="G19" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.001061794716831076</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.001941854503602031</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.002178989702986658</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.01016522170933669</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -760,6 +1045,21 @@
       <c r="E20" t="n">
         <v>-0.005042266838501536</v>
       </c>
+      <c r="G20" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.001088989836891184</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.001956283755122334</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.00225224253768542</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.01022606016067652</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -777,6 +1077,21 @@
       <c r="E21" t="n">
         <v>-0.005089492921763062</v>
       </c>
+      <c r="G21" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.001081436549987544</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.001986593667538358</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.002081631194967363</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-0.01040018466128151</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -794,6 +1109,21 @@
       <c r="E22" t="n">
         <v>-0.005087364221596815</v>
       </c>
+      <c r="G22" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.001107267012837003</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.001998041906732281</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.002154296880043295</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0.01044933498185025</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -811,6 +1141,21 @@
       <c r="E23" t="n">
         <v>-0.005126539666309948</v>
       </c>
+      <c r="G23" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.001100239442967124</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.002024228997121474</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.001995859770431096</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.01060332405583141</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -828,6 +1173,21 @@
       <c r="E24" t="n">
         <v>-0.005121794078150645</v>
       </c>
+      <c r="G24" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.001123977506545419</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.002032648290572887</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.002063035043368069</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.01064137154555764</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -845,6 +1205,21 @@
       <c r="E25" t="n">
         <v>-0.005155837267556246</v>
       </c>
+      <c r="G25" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.00111850894116471</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0.002055229713939643</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.001928238981841894</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.010777820893884</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -862,6 +1237,21 @@
       <c r="E26" t="n">
         <v>-0.005152205087797925</v>
       </c>
+      <c r="G26" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.001140789226263941</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.002062186061044613</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.001994813176739568</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.01081116845290104</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -879,6 +1269,21 @@
       <c r="E27" t="n">
         <v>-0.00518315392795343</v>
       </c>
+      <c r="G27" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.001137322136511056</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.00208174319956285</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.001876408495179897</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.01093193030698706</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -896,6 +1301,21 @@
       <c r="E28" t="n">
         <v>-0.005179741722254484</v>
       </c>
+      <c r="G28" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.001157728432222663</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.00208688248254105</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.001926711366975658</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.01096051167828481</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -913,6 +1333,21 @@
       <c r="E29" t="n">
         <v>-0.005206307348724618</v>
       </c>
+      <c r="G29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.001154941095158053</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.002103574153930234</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.001817832350620434</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.01106579803253355</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -930,6 +1365,21 @@
       <c r="E30" t="n">
         <v>-0.005203422463877873</v>
       </c>
+      <c r="G30" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.00117349938859164</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.002107793518260992</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0.001863438198554405</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.01109196564272611</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -947,6 +1397,21 @@
       <c r="E31" t="n">
         <v>-0.005224457493647731</v>
       </c>
+      <c r="G31" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.001171664111036222</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.002121873641834514</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.001771330770856482</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.01118174061878604</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -964,6 +1429,21 @@
       <c r="E32" t="n">
         <v>-0.005221869465770836</v>
       </c>
+      <c r="G32" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.001187464959787364</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.002125113168001336</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.001800298014343847</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.011206595404556</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -981,6 +1461,21 @@
       <c r="E33" t="n">
         <v>-0.005237184852307068</v>
       </c>
+      <c r="G33" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.001186610501879974</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.002136519269958294</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.001721082742669251</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.01128035441467717</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -998,6 +1493,21 @@
       <c r="E34" t="n">
         <v>-0.005235622346837158</v>
       </c>
+      <c r="G34" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.001199255569638761</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.002139126822526447</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.001736016392757712</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.01130365106104648</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1015,6 +1525,21 @@
       <c r="E35" t="n">
         <v>-0.005247306942595792</v>
       </c>
+      <c r="G35" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.001199642663973412</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.002148429752742995</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.001677723134801867</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.01136303232584765</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1032,6 +1557,21 @@
       <c r="E36" t="n">
         <v>-0.005248286546065146</v>
       </c>
+      <c r="G36" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.001210662184247378</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.002151006551944324</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.001689556841926434</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.01138756690421342</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1049,6 +1589,21 @@
       <c r="E37" t="n">
         <v>-0.005256306693620401</v>
       </c>
+      <c r="G37" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.001211296598720874</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.002158608492692523</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.001639691894167746</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.01143621896663281</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1066,6 +1621,21 @@
       <c r="E38" t="n">
         <v>-0.00525872102912242</v>
       </c>
+      <c r="G38" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.001219416328797926</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.002160771084455222</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.001632501176348228</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.01146051020656104</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1083,6 +1653,21 @@
       <c r="E39" t="n">
         <v>-0.005264157734586951</v>
       </c>
+      <c r="G39" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.00122117205804115</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.002166826639149353</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.001593028623971256</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.01149799560887067</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1100,6 +1685,21 @@
       <c r="E40" t="n">
         <v>-0.005268942350605883</v>
       </c>
+      <c r="G40" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.001228429779729507</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.002169337800186025</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.001582356915668035</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.01152539367427374</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1117,6 +1717,21 @@
       <c r="E41" t="n">
         <v>-0.005271673229188809</v>
       </c>
+      <c r="G41" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-0.001233273699472525</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.002173964347669083</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0.001570790699568707</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.01155287001357001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1134,6 +1749,21 @@
       <c r="E42" t="n">
         <v>-0.005278618136266714</v>
       </c>
+      <c r="G42" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-0.001239046777968111</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.002176782609259492</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.001552940799636664</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.01158423367847333</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1151,6 +1781,21 @@
       <c r="E43" t="n">
         <v>-0.005276876415696444</v>
       </c>
+      <c r="G43" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.001244234992901006</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-0.002180028159914201</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.001548631695376341</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.01160291777206575</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1168,6 +1813,21 @@
       <c r="E44" t="n">
         <v>-0.005285207059586543</v>
       </c>
+      <c r="G44" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-0.001247083420510484</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.002182719173699951</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.00151158960774829</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.01163551311384527</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1185,6 +1845,21 @@
       <c r="E45" t="n">
         <v>-0.005281238552916053</v>
       </c>
+      <c r="G45" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-0.001254210451608959</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.002184613191157861</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.001522981672600977</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.01164395542395685</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1202,6 +1877,21 @@
       <c r="E46" t="n">
         <v>-0.005292772433969588</v>
       </c>
+      <c r="G46" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-0.00125562373017575</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-0.002188223350139673</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.001476836185752331</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.01168328585302589</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1219,6 +1909,21 @@
       <c r="E47" t="n">
         <v>-0.005285964721584706</v>
       </c>
+      <c r="G47" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.001264142999426165</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.002188690225629578</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.001503177567267599</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.01168099194958187</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1236,6 +1941,21 @@
       <c r="E48" t="n">
         <v>-0.005299565238706994</v>
       </c>
+      <c r="G48" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.00126387867364808</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.002192514242668492</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.001446809530734459</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.01172333762848947</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1253,6 +1973,21 @@
       <c r="E49" t="n">
         <v>-0.005289845977773686</v>
       </c>
+      <c r="G49" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.001274057846508037</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.002191604410334567</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.001487313053143988</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.01171152724552689</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1270,6 +2005,21 @@
       <c r="E50" t="n">
         <v>-0.005305192508896064</v>
       </c>
+      <c r="G50" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.001272365862102565</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.002195706854383683</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.00142343147085721</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.01175690290116904</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1287,6 +2037,21 @@
       <c r="E51" t="n">
         <v>-0.005291769601037184</v>
       </c>
+      <c r="G51" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.00128313678153458</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.002193558628392396</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.001472522854718909</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.01173672862322594</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1304,6 +2069,21 @@
       <c r="E52" t="n">
         <v>-0.005306892387486407</v>
       </c>
+      <c r="G52" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.001278352756694671</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.002197875596871965</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.001389788374109027</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.01178504037394932</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1321,6 +2101,21 @@
       <c r="E53" t="n">
         <v>-0.00528949128800474</v>
       </c>
+      <c r="G53" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-0.00128971431305445</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-0.00219423185555692</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-0.001448080522047948</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.01175481185857989</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1338,6 +2133,21 @@
       <c r="E54" t="n">
         <v>-0.005307085519296508</v>
       </c>
+      <c r="G54" t="n">
+        <v>17</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.001282289887090995</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.002198679272900747</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.001350157080172588</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.01180593622136</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1355,6 +2165,21 @@
       <c r="E55" t="n">
         <v>-0.005287786884301375</v>
       </c>
+      <c r="G55" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.001294484496119695</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-0.002193737812738946</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-0.001418412281522143</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.01176759837971799</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1372,6 +2197,21 @@
       <c r="E56" t="n">
         <v>-0.005307915842517103</v>
       </c>
+      <c r="G56" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.001285945129636046</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.00219864691249813</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.001313781222679272</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.01182216472933264</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1389,6 +2229,21 @@
       <c r="E57" t="n">
         <v>-0.005287270241025541</v>
       </c>
+      <c r="G57" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.001300092478058625</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.002192964548546815</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.001398902745830658</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.01177718976129125</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1406,6 +2261,21 @@
       <c r="E58" t="n">
         <v>-0.00531049878352725</v>
       </c>
+      <c r="G58" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-0.001291228827712538</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-0.002198498705740058</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-0.001294967041673077</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.01183560753076812</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1423,6 +2293,21 @@
       <c r="E59" t="n">
         <v>-0.005287891091258374</v>
       </c>
+      <c r="G59" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.001305418236911381</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.002191928828410033</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.001382703636296278</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.0117837734486067</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1440,6 +2325,21 @@
       <c r="E60" t="n">
         <v>-0.005310190454959036</v>
       </c>
+      <c r="G60" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.00129508639861022</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.00219755130990658</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.001267988778487448</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.01184295164721157</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1457,6 +2357,21 @@
       <c r="E61" t="n">
         <v>-0.005286020016340273</v>
       </c>
+      <c r="G61" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-0.001311465998413196</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-0.0021905814737511</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-0.001370629175242143</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-0.01178761247145128</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1474,6 +2389,21 @@
       <c r="E62" t="n">
         <v>-0.005308390340622192</v>
       </c>
+      <c r="G62" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-0.001299668339083919</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-0.00219669497116232</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-0.001246125972666369</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-0.01185032716382346</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1491,6 +2421,21 @@
       <c r="E63" t="n">
         <v>-0.005281426608951708</v>
       </c>
+      <c r="G63" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.001316058638120243</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.002188917861579824</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.001350603129890012</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.01179093011456677</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1508,6 +2453,21 @@
       <c r="E64" t="n">
         <v>-0.005306974535557982</v>
       </c>
+      <c r="G64" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.001303674298711481</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.002195301109328469</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.001222500486913432</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.01185672224490258</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1525,6 +2485,21 @@
       <c r="E65" t="n">
         <v>-0.005279219505195697</v>
       </c>
+      <c r="G65" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.001322157258385611</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.002186900974242712</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.001341918229955958</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.0117921570890317</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1542,6 +2517,21 @@
       <c r="E66" t="n">
         <v>-0.005306045778608097</v>
       </c>
+      <c r="G66" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.001309781183354634</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.002193840607938763</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.001212858063073861</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.01186166243778392</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1559,6 +2549,21 @@
       <c r="E67" t="n">
         <v>-0.005277693530550845</v>
       </c>
+      <c r="G67" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.001328999016352872</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.00218479179662285</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.001337432923922358</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.01179310937420494</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1576,6 +2581,21 @@
       <c r="E68" t="n">
         <v>-0.005305539912717486</v>
       </c>
+      <c r="G68" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-0.001314624065351442</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-0.002191716700687936</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.001194946370965382</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-0.01186328844589165</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1593,6 +2613,21 @@
       <c r="E69" t="n">
         <v>-0.005276537520070112</v>
       </c>
+      <c r="G69" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-0.00133390827803422</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-0.002182275864888421</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-0.001320305160272951</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-0.01179160307486623</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1610,6 +2645,21 @@
       <c r="E70" t="n">
         <v>-0.005305377863260276</v>
       </c>
+      <c r="G70" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-0.001319296827899956</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-0.002189751551037329</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-0.001178059177212864</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-0.01186376303969346</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1627,6 +2677,21 @@
       <c r="E71" t="n">
         <v>-0.005274591586324828</v>
       </c>
+      <c r="G71" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.001339252861069271</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-0.00218003159313762</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-0.001310959126522036</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-0.01178885362363111</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1644,6 +2709,21 @@
       <c r="E72" t="n">
         <v>-0.00530229680743989</v>
       </c>
+      <c r="G72" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-0.001323408708325234</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.002187453235564441</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-0.001162980103494541</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-0.01186085751559605</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1661,6 +2741,21 @@
       <c r="E73" t="n">
         <v>-0.005268130278278888</v>
       </c>
+      <c r="G73" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-0.001342913880795566</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-0.002176979802820991</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-0.001297061499903388</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-0.01178176635588273</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1678,6 +2773,21 @@
       <c r="E74" t="n">
         <v>-0.005297284424088128</v>
       </c>
+      <c r="G74" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-0.001325439536409566</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-0.002184454903463946</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-0.001141950430849958</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-0.01185433600116972</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1695,6 +2805,21 @@
       <c r="E75" t="n">
         <v>-0.005262888466656876</v>
       </c>
+      <c r="G75" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-0.001344965224897048</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-0.002173629815037812</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-0.001279055203521798</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-0.01177271781575827</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1712,6 +2837,21 @@
       <c r="E76" t="n">
         <v>-0.005293142463330992</v>
       </c>
+      <c r="G76" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-0.001327517378474966</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-0.00218117888056902</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-0.001124916893971528</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-0.01184477170307157</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1729,6 +2869,21 @@
       <c r="E77" t="n">
         <v>-0.005258642552438552</v>
       </c>
+      <c r="G77" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-0.001347226681518949</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.002170349173659018</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-0.001261924873674408</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-0.01176254751215534</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1746,6 +2901,21 @@
       <c r="E78" t="n">
         <v>-0.005288959943889468</v>
       </c>
+      <c r="G78" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-0.0013298395320461</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-0.002177975497195102</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-0.001110556615699943</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-0.01183392841410114</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1763,6 +2933,21 @@
       <c r="E79" t="n">
         <v>-0.005254300671869092</v>
       </c>
+      <c r="G79" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-0.001348545219304807</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-0.002167225861684006</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.001243657346854192</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-0.01175200968731214</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1780,6 +2965,21 @@
       <c r="E80" t="n">
         <v>-0.005283525837548081</v>
       </c>
+      <c r="G80" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-0.001330549266285237</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-0.002174955040942435</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-0.001089520299743222</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-0.01182315468803161</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1797,6 +2997,21 @@
       <c r="E81" t="n">
         <v>-0.005248448416961176</v>
       </c>
+      <c r="G81" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.001350447775806442</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-0.002164404161582868</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.001229856350607222</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-0.0117418710081159</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1814,6 +3029,21 @@
       <c r="E82" t="n">
         <v>-0.005276869666019342</v>
       </c>
+      <c r="G82" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-0.001332593568081974</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-0.002172327864455655</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-0.001076052974680398</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-0.01181400933418035</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1831,6 +3061,21 @@
       <c r="E83" t="n">
         <v>-0.005241679516288046</v>
       </c>
+      <c r="G83" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-0.001352209994096317</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-0.002161567939467149</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.001211222449780684</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-0.0117331471065984</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1848,6 +3093,21 @@
       <c r="E84" t="n">
         <v>-0.005270573178622614</v>
       </c>
+      <c r="G84" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-0.00133483432625693</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-0.002169458810262333</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-0.001060866705227013</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-0.01180569294934317</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1865,6 +3125,21 @@
       <c r="E85" t="n">
         <v>-0.005237378058104473</v>
       </c>
+      <c r="G85" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-0.001356443029266737</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-0.002158854587810689</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-0.001208078126110319</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-0.01172592077019126</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1882,6 +3157,21 @@
       <c r="E86" t="n">
         <v>-0.005267123933768537</v>
       </c>
+      <c r="G86" t="n">
+        <v>27.56</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-0.00134024347640196</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-0.002167318728729523</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-0.001066464675600241</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-0.01180097751808872</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1899,6 +3189,21 @@
       <c r="E87" t="n">
         <v>-0.005235241432183534</v>
       </c>
+      <c r="G87" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-0.001361788268449099</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-0.002156575914363048</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-0.001213619746611548</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-0.01172111301522203</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1916,6 +3221,21 @@
       <c r="E88" t="n">
         <v>-0.005264644528899499</v>
       </c>
+      <c r="G88" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-0.001344324781054325</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-0.002165095601373865</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-0.001061185624887068</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-0.01179668353211692</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1933,6 +3253,21 @@
       <c r="E89" t="n">
         <v>-0.005233822512718737</v>
       </c>
+      <c r="G89" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-0.001366526528829758</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-0.002154391568021064</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-0.001210470161641425</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-0.01171731550887837</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1950,6 +3285,21 @@
       <c r="E90" t="n">
         <v>-0.005263708813531147</v>
       </c>
+      <c r="G90" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-0.001349008634034446</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-0.00216326281175112</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-0.001058300070310507</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-0.01179342591503648</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1967,6 +3317,21 @@
       <c r="E91" t="n">
         <v>-0.005231944499470025</v>
       </c>
+      <c r="G91" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-0.001371116562200626</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-0.002152502698039716</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-0.001208259194957941</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-0.01171294241478367</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1984,6 +3349,21 @@
       <c r="E92" t="n">
         <v>-0.005259955894060881</v>
       </c>
+      <c r="G92" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-0.001352130663811538</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-0.00216146443598094</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-0.0010532015463857</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-0.01178887060084114</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2001,6 +3381,21 @@
       <c r="E93" t="n">
         <v>-0.005227169583542187</v>
       </c>
+      <c r="G93" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-0.001373704941607766</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-0.002150221758514663</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-0.001205595694390957</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-0.01170608109548569</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2018,6 +3413,21 @@
       <c r="E94" t="n">
         <v>-0.005254553123336008</v>
       </c>
+      <c r="G94" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-0.001353263267026263</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-0.002159216856933514</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-0.001047172168780257</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-0.01178256540622651</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2035,6 +3445,21 @@
       <c r="E95" t="n">
         <v>-0.005221930813876671</v>
       </c>
+      <c r="G95" t="n">
+        <v>30.53</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-0.001374969188552819</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-0.002147452543826832</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-0.001203453662273638</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-0.0116980078789607</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2052,6 +3477,21 @@
       <c r="E96" t="n">
         <v>-0.005250096621719749</v>
       </c>
+      <c r="G96" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-0.001353790942676359</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-0.002156718281468181</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-0.001037691712172145</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-0.01177475018076894</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2069,6 +3509,21 @@
       <c r="E97" t="n">
         <v>-0.005218715844031985</v>
       </c>
+      <c r="G97" t="n">
+        <v>31.19</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-0.00137625188221346</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-0.002145194864784311</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-0.001198294888093329</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-0.01169061442957367</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2086,6 +3541,21 @@
       <c r="E98" t="n">
         <v>-0.005247023260886714</v>
       </c>
+      <c r="G98" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-0.001355381839388901</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-0.002154769170309132</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-0.001035668400409243</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-0.011767699820794</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2103,6 +3573,21 @@
       <c r="E99" t="n">
         <v>-0.00521693255960914</v>
       </c>
+      <c r="G99" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-0.001377233968010023</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-0.002143229263460395</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.001190308424514097</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-0.01168395055318363</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2120,6 +3605,21 @@
       <c r="E100" t="n">
         <v>-0.005245393966508288</v>
       </c>
+      <c r="G100" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-0.00135606695685811</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-0.0021529396994798</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-0.001022274500116346</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-0.01176090818356163</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2137,6 +3637,21 @@
       <c r="E101" t="n">
         <v>-0.005214906926010951</v>
       </c>
+      <c r="G101" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-0.001379237906595601</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-0.002141588293891174</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-0.001185366964110798</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-0.01167813875202089</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2154,6 +3669,21 @@
       <c r="E102" t="n">
         <v>-0.005243398624612647</v>
       </c>
+      <c r="G102" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-0.001358330215193881</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-0.002151624480926268</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-0.001022485449408963</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-0.01175742722806147</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2171,6 +3701,21 @@
       <c r="E103" t="n">
         <v>-0.005213285423366643</v>
       </c>
+      <c r="G103" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-0.00138188686207151</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-0.002139987928906453</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-0.001189559812265344</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-0.011674375362652</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2188,6 +3733,21 @@
       <c r="E104" t="n">
         <v>-0.005243418906390945</v>
       </c>
+      <c r="G104" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-0.001361793023393783</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-0.002149973669468741</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-0.001033237463541885</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-0.01175354138476</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2205,6 +3765,21 @@
       <c r="E105" t="n">
         <v>-0.00521383115582204</v>
       </c>
+      <c r="G105" t="n">
+        <v>33.83</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-0.001385485255391879</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-0.002138452602378857</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-0.001198945833550474</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-0.0116723353569982</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2222,6 +3797,21 @@
       <c r="E106" t="n">
         <v>-0.005243707099548613</v>
       </c>
+      <c r="G106" t="n">
+        <v>34.16</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-0.001365091816038794</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-0.002148471590290362</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-0.001036167436002578</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-0.01175096880680515</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2239,6 +3829,21 @@
       <c r="E107" t="n">
         <v>-0.005215564860134659</v>
       </c>
+      <c r="G107" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-0.001388690426321575</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-0.002136991543274558</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-0.001195765953963121</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-0.01167067756362567</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2256,6 +3861,21 @@
       <c r="E108" t="n">
         <v>-0.005245513264314215</v>
       </c>
+      <c r="G108" t="n">
+        <v>34.82</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-0.001368637799083078</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-0.002147217975653535</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-0.001035505395026038</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-0.01174914262122299</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2273,6 +3893,21 @@
       <c r="E109" t="n">
         <v>-0.005218277934716428</v>
       </c>
+      <c r="G109" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-0.001392558953821737</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-0.002136013103045542</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-0.001197794820848009</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-0.01167025320205309</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2290,6 +3925,21 @@
       <c r="E110" t="n">
         <v>-0.005247539603677426</v>
       </c>
+      <c r="G110" t="n">
+        <v>35.48</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-0.001372608230229804</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-0.002146191177241223</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-0.001039957416713399</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-0.01174635690231608</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2307,6 +3957,21 @@
       <c r="E111" t="n">
         <v>-0.005218937985575691</v>
       </c>
+      <c r="G111" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-0.001394538791566998</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-0.002135041220216267</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-0.001194686723344994</v>
+      </c>
+      <c r="K111" t="n">
+        <v>-0.01166836548880014</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2324,6 +3989,21 @@
       <c r="E112" t="n">
         <v>-0.005244969528642759</v>
       </c>
+      <c r="G112" t="n">
+        <v>36.14</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-0.001373407113145636</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-0.002144494841630538</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-0.001037997812894142</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-0.01173963007610767</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2341,6 +4021,21 @@
       <c r="E113" t="n">
         <v>-0.005215678188525859</v>
       </c>
+      <c r="G113" t="n">
+        <v>36.47</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-0.00139293513146219</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-0.00213335742951515</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-0.001180757907467839</v>
+      </c>
+      <c r="K113" t="n">
+        <v>-0.01166318340373883</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2358,6 +4053,21 @@
       <c r="E114" t="n">
         <v>-0.005242113115266571</v>
       </c>
+      <c r="G114" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-0.001372082713745933</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-0.002142538181045577</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-0.001027899091808639</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-0.0117318932038523</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2375,6 +4085,21 @@
       <c r="E115" t="n">
         <v>-0.005215008744318306</v>
       </c>
+      <c r="G115" t="n">
+        <v>37.13</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-0.001391817016848841</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-0.002131775096953264</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-0.001168810702817505</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-0.01165897049333795</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2392,6 +4117,21 @@
       <c r="E116" t="n">
         <v>-0.005240895494567453</v>
       </c>
+      <c r="G116" t="n">
+        <v>37.46</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-0.001372092561633127</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-0.002140484729569954</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-0.001021264123499246</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-0.01172350898439929</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2409,6 +4149,21 @@
       <c r="E117" t="n">
         <v>-0.005215271045964511</v>
       </c>
+      <c r="G117" t="n">
+        <v>37.79</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-0.001391249708852486</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-0.002130319874117268</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-0.001158026302194325</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-0.01165435640231685</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2426,6 +4181,21 @@
       <c r="E118" t="n">
         <v>-0.005239917089628073</v>
       </c>
+      <c r="G118" t="n">
+        <v>38.12</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-0.001373341542179253</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-0.002138948838276309</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-0.001029670371546388</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-0.01171642029786554</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2443,6 +4213,21 @@
       <c r="E119" t="n">
         <v>-0.005215959259595998</v>
       </c>
+      <c r="G119" t="n">
+        <v>38.45</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-0.001390996878445474</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-0.002129525127462905</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.001154661530320992</v>
+      </c>
+      <c r="K119" t="n">
+        <v>-0.01165201456017988</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2460,6 +4245,21 @@
       <c r="E120" t="n">
         <v>-0.005238777256228672</v>
       </c>
+      <c r="G120" t="n">
+        <v>38.78</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-0.001374704428323345</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-0.002137978735636729</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-0.001034478782152929</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-0.01171068088755139</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2477,6 +4277,21 @@
       <c r="E121" t="n">
         <v>-0.005214973762621098</v>
       </c>
+      <c r="G121" t="n">
+        <v>39.11</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-0.001392092641170023</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-0.00212928810563978</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-0.001152723569953487</v>
+      </c>
+      <c r="K121" t="n">
+        <v>-0.01165237504719863</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2494,6 +4309,21 @@
       <c r="E122" t="n">
         <v>-0.005234697087320522</v>
       </c>
+      <c r="G122" t="n">
+        <v>39.44</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-0.001376336203234033</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-0.002137037232590881</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-0.001034226546122785</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-0.01170698233863168</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2511,6 +4341,21 @@
       <c r="E123" t="n">
         <v>-0.005212763604946001</v>
       </c>
+      <c r="G123" t="n">
+        <v>39.77</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-0.001392013553520899</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-0.002128579684983371</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-0.001141384958493324</v>
+      </c>
+      <c r="K123" t="n">
+        <v>-0.01165271637747572</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2528,6 +4373,21 @@
       <c r="E124" t="n">
         <v>-0.005231898119003989</v>
       </c>
+      <c r="G124" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-0.001378586440614009</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-0.002135904619372807</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-0.001044198982427015</v>
+      </c>
+      <c r="K124" t="n">
+        <v>-0.01170349352872456</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2545,6 +4405,21 @@
       <c r="E125" t="n">
         <v>-0.005214917135129099</v>
       </c>
+      <c r="G125" t="n">
+        <v>40.43</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-0.00139399107463199</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-0.00212869379807328</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-0.001147674752050985</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-0.0116574349407762</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2562,6 +4437,21 @@
       <c r="E126" t="n">
         <v>-0.005233415168880283</v>
       </c>
+      <c r="G126" t="n">
+        <v>40.76</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-0.001382954379353486</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-0.002135562224401318</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-0.00106434474582653</v>
+      </c>
+      <c r="K126" t="n">
+        <v>-0.01170346567418345</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2579,6 +4469,21 @@
       <c r="E127" t="n">
         <v>-0.005218597075741274</v>
       </c>
+      <c r="G127" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-0.001396538323261387</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-0.002128947756886392</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-0.001149839258729769</v>
+      </c>
+      <c r="K127" t="n">
+        <v>-0.01166282138730414</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2596,6 +4501,21 @@
       <c r="E128" t="n">
         <v>-0.005235047148607735</v>
       </c>
+      <c r="G128" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-0.001386420966466862</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-0.002135058107583994</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-0.001071638100907733</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-0.01170307596997523</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2613,6 +4533,21 @@
       <c r="E129" t="n">
         <v>-0.005222914201641339</v>
       </c>
+      <c r="G129" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-0.001398526245574855</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-0.0021295014535792</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-0.001147456106200927</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-0.01166964161373672</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2630,6 +4565,21 @@
       <c r="E130" t="n">
         <v>-0.005235841997245042</v>
       </c>
+      <c r="G130" t="n">
+        <v>42.08</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-0.001389639615580898</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-0.002134812343245262</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-0.001082891654257604</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-0.01170249162519869</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2647,6 +4597,21 @@
       <c r="E131" t="n">
         <v>-0.00522587627691449</v>
       </c>
+      <c r="G131" t="n">
+        <v>42.41</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-0.001399213641693931</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-0.002130109016104153</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-0.001142839700428547</v>
+      </c>
+      <c r="K131" t="n">
+        <v>-0.0116750582728814</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2664,6 +4629,21 @@
       <c r="E132" t="n">
         <v>-0.005234807147158574</v>
       </c>
+      <c r="G132" t="n">
+        <v>42.74</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-0.001391669113729727</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-0.002134274991350444</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-0.001091684120436703</v>
+      </c>
+      <c r="K132" t="n">
+        <v>-0.01169920252196275</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2681,6 +4661,21 @@
       <c r="E133" t="n">
         <v>-0.00522713076583828</v>
       </c>
+      <c r="G133" t="n">
+        <v>43.07</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-0.001398217876722529</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-0.002130252123270441</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-0.001133224438314775</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-0.01167797634387233</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2698,6 +4693,21 @@
       <c r="E134" t="n">
         <v>-0.005233248718916134</v>
       </c>
+      <c r="G134" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-0.001391778869045925</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-0.002133281414610728</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-0.0010959929305495</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-0.01169422208155185</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2715,6 +4725,21 @@
       <c r="E135" t="n">
         <v>-0.005228830745972439</v>
       </c>
+      <c r="G135" t="n">
+        <v>43.73</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-0.001397157769266683</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-0.002130222931086462</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-0.001131477586335413</v>
+      </c>
+      <c r="K135" t="n">
+        <v>-0.01168027655287734</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2732,6 +4757,21 @@
       <c r="E136" t="n">
         <v>-0.005232419773940993</v>
       </c>
+      <c r="G136" t="n">
+        <v>44.06</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-0.001391888537658718</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-0.002132727852297303</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-0.00110301244923845</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-0.01169169085974795</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -2749,6 +4789,21 @@
       <c r="E137" t="n">
         <v>-0.005230529226033268</v>
       </c>
+      <c r="G137" t="n">
+        <v>44.39</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-0.001395038641600728</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-0.002130489912388382</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-0.001117541294908988</v>
+      </c>
+      <c r="K137" t="n">
+        <v>-0.01168359612816539</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2766,6 +4821,21 @@
       <c r="E138" t="n">
         <v>-0.005232396013797445</v>
       </c>
+      <c r="G138" t="n">
+        <v>44.72</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-0.001391701317619233</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-0.002132220107643782</v>
+      </c>
+      <c r="J138" t="n">
+        <v>-0.001098417159819693</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-0.01168806197121219</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -2783,6 +4853,21 @@
       <c r="E139" t="n">
         <v>-0.00523366276786662</v>
       </c>
+      <c r="G139" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-0.001394528725915241</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-0.002130980826215143</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-0.001107840829207955</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-0.0116870613147589</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2800,6 +4885,21 @@
       <c r="E140" t="n">
         <v>-0.005233636179235618</v>
       </c>
+      <c r="G140" t="n">
+        <v>45.38</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-0.001394624719583871</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-0.002132002971676629</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-0.001114509518493578</v>
+      </c>
+      <c r="K140" t="n">
+        <v>-0.01168567655976997</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -2817,6 +4917,21 @@
       <c r="E141" t="n">
         <v>-0.005237704961683036</v>
       </c>
+      <c r="G141" t="n">
+        <v>45.71</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-0.001396348220054598</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-0.002131745841332189</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-0.001116306387178332</v>
+      </c>
+      <c r="K141" t="n">
+        <v>-0.01169234123168546</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2834,6 +4949,21 @@
       <c r="E142" t="n">
         <v>-0.005233878710475705</v>
       </c>
+      <c r="G142" t="n">
+        <v>46.04</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-0.001397139793172646</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-0.002131983812810082</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-0.001129606483122154</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-0.01168621046162566</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2851,6 +4981,21 @@
       <c r="E143" t="n">
         <v>-0.005239886411286072</v>
       </c>
+      <c r="G143" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-0.001396038826918258</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-0.002132154926292113</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-0.001109640868446677</v>
+      </c>
+      <c r="K143" t="n">
+        <v>-0.01169812941325335</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2868,6 +5013,21 @@
       <c r="E144" t="n">
         <v>-0.005234249964077649</v>
       </c>
+      <c r="G144" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-0.001398986041063623</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-0.002131428017441572</v>
+      </c>
+      <c r="J144" t="n">
+        <v>-0.001136466699859691</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-0.01168506145614445</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2885,6 +5045,21 @@
       <c r="E145" t="n">
         <v>-0.005243885642501423</v>
       </c>
+      <c r="G145" t="n">
+        <v>47.03</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-0.001396668635460743</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-0.002132894064270445</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-0.001105306547015085</v>
+      </c>
+      <c r="K145" t="n">
+        <v>-0.0117064418889314</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2902,6 +5077,21 @@
       <c r="E146" t="n">
         <v>-0.005235840943059887</v>
       </c>
+      <c r="G146" t="n">
+        <v>47.36</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-0.001401441044365006</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-0.002131192271913055</v>
+      </c>
+      <c r="J146" t="n">
+        <v>-0.001146276262311584</v>
+      </c>
+      <c r="K146" t="n">
+        <v>-0.01168556478820827</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2919,6 +5109,21 @@
       <c r="E147" t="n">
         <v>-0.00524790462382788</v>
       </c>
+      <c r="G147" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-0.001397965683844221</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-0.002133360217411047</v>
+      </c>
+      <c r="J147" t="n">
+        <v>-0.001104657684746072</v>
+      </c>
+      <c r="K147" t="n">
+        <v>-0.01171285807314711</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2936,6 +5141,21 @@
       <c r="E148" t="n">
         <v>-0.005237208254640176</v>
       </c>
+      <c r="G148" t="n">
+        <v>48.02</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-0.00140465939359306</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-0.002130761079366331</v>
+      </c>
+      <c r="J148" t="n">
+        <v>-0.001158291050402732</v>
+      </c>
+      <c r="K148" t="n">
+        <v>-0.01168519694196563</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -2953,6 +5173,21 @@
       <c r="E149" t="n">
         <v>-0.005251310610704686</v>
       </c>
+      <c r="G149" t="n">
+        <v>48.35</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-0.001399814272783876</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-0.002133670226999204</v>
+      </c>
+      <c r="J149" t="n">
+        <v>-0.001107148652535497</v>
+      </c>
+      <c r="K149" t="n">
+        <v>-0.01171786829124979</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -2970,6 +5205,21 @@
       <c r="E150" t="n">
         <v>-0.005237355613917283</v>
       </c>
+      <c r="G150" t="n">
+        <v>48.68</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-0.001407195750784738</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-0.002130282001531972</v>
+      </c>
+      <c r="J150" t="n">
+        <v>-0.001168994704021034</v>
+      </c>
+      <c r="K150" t="n">
+        <v>-0.01168388722410453</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2987,6 +5237,21 @@
       <c r="E151" t="n">
         <v>-0.005251563798948641</v>
       </c>
+      <c r="G151" t="n">
+        <v>49.01</v>
+      </c>
+      <c r="H151" t="n">
+        <v>-0.001399203052241739</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-0.002133847780470336</v>
+      </c>
+      <c r="J151" t="n">
+        <v>-0.001098499014447016</v>
+      </c>
+      <c r="K151" t="n">
+        <v>-0.01172146363795145</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3004,6 +5269,21 @@
       <c r="E152" t="n">
         <v>-0.005233973628664767</v>
       </c>
+      <c r="G152" t="n">
+        <v>49.34</v>
+      </c>
+      <c r="H152" t="n">
+        <v>-0.001407090217678982</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-0.002129368598084849</v>
+      </c>
+      <c r="J152" t="n">
+        <v>-0.001168750045726743</v>
+      </c>
+      <c r="K152" t="n">
+        <v>-0.0116793807174459</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3021,6 +5301,21 @@
       <c r="E153" t="n">
         <v>-0.005250873427934236</v>
       </c>
+      <c r="G153" t="n">
+        <v>49.67</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-0.001396451585113958</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-0.002133441340641638</v>
+      </c>
+      <c r="J153" t="n">
+        <v>-0.001082408761949336</v>
+      </c>
+      <c r="K153" t="n">
+        <v>-0.01172157924191448</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3038,6 +5333,21 @@
       <c r="E154" t="n">
         <v>-0.005231592293180923</v>
       </c>
+      <c r="G154" t="n">
+        <v>50</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-0.001405273597050619</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-0.002127986651457144</v>
+      </c>
+      <c r="J154" t="n">
+        <v>-0.001161428632873232</v>
+      </c>
+      <c r="K154" t="n">
+        <v>-0.01167319250668137</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3055,6 +5365,21 @@
       <c r="E155" t="n">
         <v>-0.005251270799591312</v>
       </c>
+      <c r="G155" t="n">
+        <v>50.33</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-0.001393672041705677</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-0.002132763630793737</v>
+      </c>
+      <c r="J155" t="n">
+        <v>-0.001067574500000329</v>
+      </c>
+      <c r="K155" t="n">
+        <v>-0.01172030534547562</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3072,6 +5397,21 @@
       <c r="E156" t="n">
         <v>-0.005230812062642442</v>
       </c>
+      <c r="G156" t="n">
+        <v>50.66</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-0.001404696289665168</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-0.002126779303731609</v>
+      </c>
+      <c r="J156" t="n">
+        <v>-0.001162658056211534</v>
+      </c>
+      <c r="K156" t="n">
+        <v>-0.0116668795065139</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3089,6 +5429,21 @@
       <c r="E157" t="n">
         <v>-0.00525380997785331</v>
       </c>
+      <c r="G157" t="n">
+        <v>50.99</v>
+      </c>
+      <c r="H157" t="n">
+        <v>-0.001393042900939026</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-0.00213234785009687</v>
+      </c>
+      <c r="J157" t="n">
+        <v>-0.001068782906346362</v>
+      </c>
+      <c r="K157" t="n">
+        <v>-0.01171928773056277</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3106,6 +5461,21 @@
       <c r="E158" t="n">
         <v>-0.005231545467172885</v>
       </c>
+      <c r="G158" t="n">
+        <v>51.32</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-0.001404294969507489</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-0.002125627587951384</v>
+      </c>
+      <c r="J158" t="n">
+        <v>-0.001165411049571492</v>
+      </c>
+      <c r="K158" t="n">
+        <v>-0.01166039291421502</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3123,6 +5493,21 @@
       <c r="E159" t="n">
         <v>-0.005253842716622888</v>
       </c>
+      <c r="G159" t="n">
+        <v>51.65</v>
+      </c>
+      <c r="H159" t="n">
+        <v>-0.001391282111341044</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-0.002131435696368525</v>
+      </c>
+      <c r="J159" t="n">
+        <v>-0.001059195213541765</v>
+      </c>
+      <c r="K159" t="n">
+        <v>-0.01171482244265575</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3140,6 +5525,21 @@
       <c r="E160" t="n">
         <v>-0.00523020911107842</v>
       </c>
+      <c r="G160" t="n">
+        <v>51.98</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-0.001405043874663394</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-0.002124440965414726</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-0.001170525811446366</v>
+      </c>
+      <c r="K160" t="n">
+        <v>-0.01165355831354833</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3157,6 +5557,21 @@
       <c r="E161" t="n">
         <v>-0.005252729254264007</v>
       </c>
+      <c r="G161" t="n">
+        <v>52.31</v>
+      </c>
+      <c r="H161" t="n">
+        <v>-0.001390828281184947</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-0.002130873783866532</v>
+      </c>
+      <c r="J161" t="n">
+        <v>-0.001054550699112437</v>
+      </c>
+      <c r="K161" t="n">
+        <v>-0.01171266817078533</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3174,6 +5589,21 @@
       <c r="E162" t="n">
         <v>-0.005226437800111696</v>
       </c>
+      <c r="G162" t="n">
+        <v>52.64</v>
+      </c>
+      <c r="H162" t="n">
+        <v>-0.001404690488342045</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-0.002123277699789379</v>
+      </c>
+      <c r="J162" t="n">
+        <v>-0.001167171195589119</v>
+      </c>
+      <c r="K162" t="n">
+        <v>-0.01164856316762136</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3191,6 +5621,21 @@
       <c r="E163" t="n">
         <v>-0.005252212226208686</v>
       </c>
+      <c r="G163" t="n">
+        <v>52.97</v>
+      </c>
+      <c r="H163" t="n">
+        <v>-0.001389924441041607</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-0.002130136038375898</v>
+      </c>
+      <c r="J163" t="n">
+        <v>-0.001046872579389989</v>
+      </c>
+      <c r="K163" t="n">
+        <v>-0.01171171196532615</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3208,6 +5653,21 @@
       <c r="E164" t="n">
         <v>-0.005225199650823379</v>
       </c>
+      <c r="G164" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="H164" t="n">
+        <v>-0.001405928386162826</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-0.002122027097320858</v>
+      </c>
+      <c r="J164" t="n">
+        <v>-0.001173911067275493</v>
+      </c>
+      <c r="K164" t="n">
+        <v>-0.01164316994303552</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3225,6 +5685,21 @@
       <c r="E165" t="n">
         <v>-0.0052523891482301</v>
       </c>
+      <c r="G165" t="n">
+        <v>53.63</v>
+      </c>
+      <c r="H165" t="n">
+        <v>-0.001391232018835448</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-0.002129563924857521</v>
+      </c>
+      <c r="J165" t="n">
+        <v>-0.001052269385516729</v>
+      </c>
+      <c r="K165" t="n">
+        <v>-0.0117108566205781</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3242,6 +5717,21 @@
       <c r="E166" t="n">
         <v>-0.005224866232355461</v>
       </c>
+      <c r="G166" t="n">
+        <v>53.96</v>
+      </c>
+      <c r="H166" t="n">
+        <v>-0.001408127821999668</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-0.002120929789397751</v>
+      </c>
+      <c r="J166" t="n">
+        <v>-0.001184676803564761</v>
+      </c>
+      <c r="K166" t="n">
+        <v>-0.01163916486771812</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3259,6 +5749,21 @@
       <c r="E167" t="n">
         <v>-0.005253146516041152</v>
       </c>
+      <c r="G167" t="n">
+        <v>54.29</v>
+      </c>
+      <c r="H167" t="n">
+        <v>-0.001391459129025291</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-0.002128572780318866</v>
+      </c>
+      <c r="J167" t="n">
+        <v>-0.001048996065011652</v>
+      </c>
+      <c r="K167" t="n">
+        <v>-0.01170832446259642</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3276,6 +5781,21 @@
       <c r="E168" t="n">
         <v>-0.005225070567176067</v>
       </c>
+      <c r="G168" t="n">
+        <v>54.62</v>
+      </c>
+      <c r="H168" t="n">
+        <v>-0.001408485532382332</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-0.002119645087413634</v>
+      </c>
+      <c r="J168" t="n">
+        <v>-0.001181089655032812</v>
+      </c>
+      <c r="K168" t="n">
+        <v>-0.01163425558207662</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3293,6 +5813,21 @@
       <c r="E169" t="n">
         <v>-0.005254435178396675</v>
       </c>
+      <c r="G169" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="H169" t="n">
+        <v>-0.001391747377614301</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-0.002127901954885297</v>
+      </c>
+      <c r="J169" t="n">
+        <v>-0.001045130198335396</v>
+      </c>
+      <c r="K169" t="n">
+        <v>-0.01170604843742703</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -3310,6 +5845,21 @@
       <c r="E170" t="n">
         <v>-0.005224622468218594</v>
       </c>
+      <c r="G170" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="H170" t="n">
+        <v>-0.001409522217624621</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-0.002118775278990314</v>
+      </c>
+      <c r="J170" t="n">
+        <v>-0.001184522561393223</v>
+      </c>
+      <c r="K170" t="n">
+        <v>-0.01162937880575645</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3327,6 +5877,21 @@
       <c r="E171" t="n">
         <v>-0.005252964403957252</v>
       </c>
+      <c r="G171" t="n">
+        <v>55.61</v>
+      </c>
+      <c r="H171" t="n">
+        <v>-0.001391537138313762</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-0.002127086565074089</v>
+      </c>
+      <c r="J171" t="n">
+        <v>-0.001042385960818524</v>
+      </c>
+      <c r="K171" t="n">
+        <v>-0.01170169564678608</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3344,6 +5909,21 @@
       <c r="E172" t="n">
         <v>-0.005219829526925971</v>
       </c>
+      <c r="G172" t="n">
+        <v>55.94</v>
+      </c>
+      <c r="H172" t="n">
+        <v>-0.001408902708024694</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-0.00211732020532365</v>
+      </c>
+      <c r="J172" t="n">
+        <v>-0.001182926875211612</v>
+      </c>
+      <c r="K172" t="n">
+        <v>-0.01162157849577352</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -3361,6 +5941,21 @@
       <c r="E173" t="n">
         <v>-0.005249647976790836</v>
       </c>
+      <c r="G173" t="n">
+        <v>56.27</v>
+      </c>
+      <c r="H173" t="n">
+        <v>-0.00138928363150195</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-0.002125772638184085</v>
+      </c>
+      <c r="J173" t="n">
+        <v>-0.001033181945131515</v>
+      </c>
+      <c r="K173" t="n">
+        <v>-0.01169508444961656</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3378,6 +5973,21 @@
       <c r="E174" t="n">
         <v>-0.005216289546209185</v>
       </c>
+      <c r="G174" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="H174" t="n">
+        <v>-0.001406688063120175</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-0.002115714750209614</v>
+      </c>
+      <c r="J174" t="n">
+        <v>-0.001175960626858341</v>
+      </c>
+      <c r="K174" t="n">
+        <v>-0.01161294114368629</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3395,6 +6005,21 @@
       <c r="E175" t="n">
         <v>-0.005247246441854541</v>
       </c>
+      <c r="G175" t="n">
+        <v>56.93</v>
+      </c>
+      <c r="H175" t="n">
+        <v>-0.001387199972245159</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-0.002124269646145342</v>
+      </c>
+      <c r="J175" t="n">
+        <v>-0.001026887364321969</v>
+      </c>
+      <c r="K175" t="n">
+        <v>-0.01168636148188669</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3412,6 +6037,21 @@
       <c r="E176" t="n">
         <v>-0.005213775215698357</v>
       </c>
+      <c r="G176" t="n">
+        <v>57.26</v>
+      </c>
+      <c r="H176" t="n">
+        <v>-0.001404801639214954</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-0.002114248104108664</v>
+      </c>
+      <c r="J176" t="n">
+        <v>-0.001169082476038005</v>
+      </c>
+      <c r="K176" t="n">
+        <v>-0.01160397874592063</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3429,6 +6069,21 @@
       <c r="E177" t="n">
         <v>-0.005244857727786575</v>
       </c>
+      <c r="G177" t="n">
+        <v>57.59</v>
+      </c>
+      <c r="H177" t="n">
+        <v>-0.00138542996802829</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-0.002122906327565774</v>
+      </c>
+      <c r="J177" t="n">
+        <v>-0.001022212259680905</v>
+      </c>
+      <c r="K177" t="n">
+        <v>-0.01167707434905063</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -3446,6 +6101,21 @@
       <c r="E178" t="n">
         <v>-0.005211259917547938</v>
       </c>
+      <c r="G178" t="n">
+        <v>57.92</v>
+      </c>
+      <c r="H178" t="n">
+        <v>-0.001402187442619079</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-0.002112999945016763</v>
+      </c>
+      <c r="J178" t="n">
+        <v>-0.001160432565802334</v>
+      </c>
+      <c r="K178" t="n">
+        <v>-0.0115955582710532</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -3463,6 +6133,21 @@
       <c r="E179" t="n">
         <v>-0.005241257989064076</v>
       </c>
+      <c r="G179" t="n">
+        <v>58.25</v>
+      </c>
+      <c r="H179" t="n">
+        <v>-0.001382217681889622</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-0.002121778350906539</v>
+      </c>
+      <c r="J179" t="n">
+        <v>-0.001010260795033997</v>
+      </c>
+      <c r="K179" t="n">
+        <v>-0.0116686955915599</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -3480,6 +6165,21 @@
       <c r="E180" t="n">
         <v>-0.00520726003716753</v>
       </c>
+      <c r="G180" t="n">
+        <v>58.58</v>
+      </c>
+      <c r="H180" t="n">
+        <v>-0.001400233720010928</v>
+      </c>
+      <c r="I180" t="n">
+        <v>-0.002112070764353716</v>
+      </c>
+      <c r="J180" t="n">
+        <v>-0.001154985853449746</v>
+      </c>
+      <c r="K180" t="n">
+        <v>-0.01158814309044355</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -3497,6 +6197,21 @@
       <c r="E181" t="n">
         <v>-0.00523642591174591</v>
       </c>
+      <c r="G181" t="n">
+        <v>58.91</v>
+      </c>
+      <c r="H181" t="n">
+        <v>-0.001380591781762635</v>
+      </c>
+      <c r="I181" t="n">
+        <v>-0.002121028403556133</v>
+      </c>
+      <c r="J181" t="n">
+        <v>-0.001005236970334098</v>
+      </c>
+      <c r="K181" t="n">
+        <v>-0.01166248568944741</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -3514,6 +6229,21 @@
       <c r="E182" t="n">
         <v>-0.005202268577460223</v>
       </c>
+      <c r="G182" t="n">
+        <v>59.24</v>
+      </c>
+      <c r="H182" t="n">
+        <v>-0.001398354539709527</v>
+      </c>
+      <c r="I182" t="n">
+        <v>-0.002111160321219496</v>
+      </c>
+      <c r="J182" t="n">
+        <v>-0.001144683733080909</v>
+      </c>
+      <c r="K182" t="n">
+        <v>-0.01158269310749374</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -3531,6 +6261,21 @@
       <c r="E183" t="n">
         <v>-0.005231912605352507</v>
       </c>
+      <c r="G183" t="n">
+        <v>59.57</v>
+      </c>
+      <c r="H183" t="n">
+        <v>-0.001379215024579787</v>
+      </c>
+      <c r="I183" t="n">
+        <v>-0.00212009624942832</v>
+      </c>
+      <c r="J183" t="n">
+        <v>-0.0009979976997536348</v>
+      </c>
+      <c r="K183" t="n">
+        <v>-0.01165761680514826</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -3548,6 +6293,21 @@
       <c r="E184" t="n">
         <v>-0.005199736304751937</v>
       </c>
+      <c r="G184" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="H184" t="n">
+        <v>-0.001399086975515936</v>
+      </c>
+      <c r="I184" t="n">
+        <v>-0.002110396860203328</v>
+      </c>
+      <c r="J184" t="n">
+        <v>-0.001149717692000128</v>
+      </c>
+      <c r="K184" t="n">
+        <v>-0.0115791546835947</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -3565,6 +6325,21 @@
       <c r="E185" t="n">
         <v>-0.005230189355702359</v>
       </c>
+      <c r="G185" t="n">
+        <v>60.23</v>
+      </c>
+      <c r="H185" t="n">
+        <v>-0.001381163425441732</v>
+      </c>
+      <c r="I185" t="n">
+        <v>-0.002119882470044253</v>
+      </c>
+      <c r="J185" t="n">
+        <v>-0.001011798279335231</v>
+      </c>
+      <c r="K185" t="n">
+        <v>-0.01165664051300253</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -3582,6 +6357,21 @@
       <c r="E186" t="n">
         <v>-0.005199256134424242</v>
       </c>
+      <c r="G186" t="n">
+        <v>60.56</v>
+      </c>
+      <c r="H186" t="n">
+        <v>-0.001401008784029578</v>
+      </c>
+      <c r="I186" t="n">
+        <v>-0.00211002915089643</v>
+      </c>
+      <c r="J186" t="n">
+        <v>-0.001162881841660982</v>
+      </c>
+      <c r="K186" t="n">
+        <v>-0.01157826680937951</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -3599,6 +6389,21 @@
       <c r="E187" t="n">
         <v>-0.005229348837502189</v>
       </c>
+      <c r="G187" t="n">
+        <v>60.89</v>
+      </c>
+      <c r="H187" t="n">
+        <v>-0.001381900730617127</v>
+      </c>
+      <c r="I187" t="n">
+        <v>-0.002119557704643182</v>
+      </c>
+      <c r="J187" t="n">
+        <v>-0.001013970223219283</v>
+      </c>
+      <c r="K187" t="n">
+        <v>-0.01165639164888059</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -3616,6 +6421,21 @@
       <c r="E188" t="n">
         <v>-0.005199432658906818</v>
       </c>
+      <c r="G188" t="n">
+        <v>61.22</v>
+      </c>
+      <c r="H188" t="n">
+        <v>-0.001402400807698342</v>
+      </c>
+      <c r="I188" t="n">
+        <v>-0.002109740156407392</v>
+      </c>
+      <c r="J188" t="n">
+        <v>-0.001166846973191107</v>
+      </c>
+      <c r="K188" t="n">
+        <v>-0.01157866560216687</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -3633,6 +6453,21 @@
       <c r="E189" t="n">
         <v>-0.005229998450870497</v>
       </c>
+      <c r="G189" t="n">
+        <v>61.55</v>
+      </c>
+      <c r="H189" t="n">
+        <v>-0.001383257623025989</v>
+      </c>
+      <c r="I189" t="n">
+        <v>-0.002119609502090773</v>
+      </c>
+      <c r="J189" t="n">
+        <v>-0.00101787375342991</v>
+      </c>
+      <c r="K189" t="n">
+        <v>-0.01165739314644538</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -3650,6 +6485,21 @@
       <c r="E190" t="n">
         <v>-0.005199173113893964</v>
       </c>
+      <c r="G190" t="n">
+        <v>61.88</v>
+      </c>
+      <c r="H190" t="n">
+        <v>-0.001403750308769387</v>
+      </c>
+      <c r="I190" t="n">
+        <v>-0.002109734324140982</v>
+      </c>
+      <c r="J190" t="n">
+        <v>-0.001171611479119235</v>
+      </c>
+      <c r="K190" t="n">
+        <v>-0.01157875503367864</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -3667,6 +6517,21 @@
       <c r="E191" t="n">
         <v>-0.005227863358996465</v>
       </c>
+      <c r="G191" t="n">
+        <v>62.21</v>
+      </c>
+      <c r="H191" t="n">
+        <v>-0.00138305348712668</v>
+      </c>
+      <c r="I191" t="n">
+        <v>-0.002119687253328777</v>
+      </c>
+      <c r="J191" t="n">
+        <v>-0.001019187601082985</v>
+      </c>
+      <c r="K191" t="n">
+        <v>-0.01165734166989035</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -3684,6 +6549,21 @@
       <c r="E192" t="n">
         <v>-0.00519597517020439</v>
       </c>
+      <c r="G192" t="n">
+        <v>62.54</v>
+      </c>
+      <c r="H192" t="n">
+        <v>-0.00140295571279661</v>
+      </c>
+      <c r="I192" t="n">
+        <v>-0.002109337650900738</v>
+      </c>
+      <c r="J192" t="n">
+        <v>-0.00117422990075212</v>
+      </c>
+      <c r="K192" t="n">
+        <v>-0.01157655388121459</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -3701,6 +6581,21 @@
       <c r="E193" t="n">
         <v>-0.005224057439093416</v>
       </c>
+      <c r="G193" t="n">
+        <v>62.87</v>
+      </c>
+      <c r="H193" t="n">
+        <v>-0.001381033800988126</v>
+      </c>
+      <c r="I193" t="n">
+        <v>-0.002119349296949778</v>
+      </c>
+      <c r="J193" t="n">
+        <v>-0.001019322818336326</v>
+      </c>
+      <c r="K193" t="n">
+        <v>-0.01165584590809025</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -3718,6 +6613,21 @@
       <c r="E194" t="n">
         <v>-0.005192380446143816</v>
       </c>
+      <c r="G194" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="H194" t="n">
+        <v>-0.001401300066917864</v>
+      </c>
+      <c r="I194" t="n">
+        <v>-0.002108500979954326</v>
+      </c>
+      <c r="J194" t="n">
+        <v>-0.00117956989591045</v>
+      </c>
+      <c r="K194" t="n">
+        <v>-0.01157340419646242</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -3735,6 +6645,21 @@
       <c r="E195" t="n">
         <v>-0.005221131061917714</v>
       </c>
+      <c r="G195" t="n">
+        <v>63.53</v>
+      </c>
+      <c r="H195" t="n">
+        <v>-0.001378525339009687</v>
+      </c>
+      <c r="I195" t="n">
+        <v>-0.002118719248503176</v>
+      </c>
+      <c r="J195" t="n">
+        <v>-0.001016585840546435</v>
+      </c>
+      <c r="K195" t="n">
+        <v>-0.01165288734048344</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -3752,6 +6677,21 @@
       <c r="E196" t="n">
         <v>-0.005190330946102696</v>
       </c>
+      <c r="G196" t="n">
+        <v>63.86</v>
+      </c>
+      <c r="H196" t="n">
+        <v>-0.001399169130028431</v>
+      </c>
+      <c r="I196" t="n">
+        <v>-0.002107951883876535</v>
+      </c>
+      <c r="J196" t="n">
+        <v>-0.0011791367599998</v>
+      </c>
+      <c r="K196" t="n">
+        <v>-0.01157069292920124</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -3769,6 +6709,21 @@
       <c r="E197" t="n">
         <v>-0.005218908407079456</v>
       </c>
+      <c r="G197" t="n">
+        <v>64.19</v>
+      </c>
+      <c r="H197" t="n">
+        <v>-0.001376471756006189</v>
+      </c>
+      <c r="I197" t="n">
+        <v>-0.002118350629878705</v>
+      </c>
+      <c r="J197" t="n">
+        <v>-0.001018588240848044</v>
+      </c>
+      <c r="K197" t="n">
+        <v>-0.01165021201257888</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -3786,6 +6741,21 @@
       <c r="E198" t="n">
         <v>-0.00518940807126239</v>
       </c>
+      <c r="G198" t="n">
+        <v>64.52</v>
+      </c>
+      <c r="H198" t="n">
+        <v>-0.00139663428223016</v>
+      </c>
+      <c r="I198" t="n">
+        <v>-0.002107590788539958</v>
+      </c>
+      <c r="J198" t="n">
+        <v>-0.001175336331066886</v>
+      </c>
+      <c r="K198" t="n">
+        <v>-0.0115684111215445</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -3803,6 +6773,21 @@
       <c r="E199" t="n">
         <v>-0.00521831525374335</v>
       </c>
+      <c r="G199" t="n">
+        <v>64.84999999999999</v>
+      </c>
+      <c r="H199" t="n">
+        <v>-0.001373862673596377</v>
+      </c>
+      <c r="I199" t="n">
+        <v>-0.002118220577009936</v>
+      </c>
+      <c r="J199" t="n">
+        <v>-0.00100942959172381</v>
+      </c>
+      <c r="K199" t="n">
+        <v>-0.01164807841137814</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -3820,6 +6805,21 @@
       <c r="E200" t="n">
         <v>-0.005188461535905796</v>
       </c>
+      <c r="G200" t="n">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="H200" t="n">
+        <v>-0.001395585970522074</v>
+      </c>
+      <c r="I200" t="n">
+        <v>-0.002107634509287374</v>
+      </c>
+      <c r="J200" t="n">
+        <v>-0.001175368155379463</v>
+      </c>
+      <c r="K200" t="n">
+        <v>-0.011567206400972</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -3837,6 +6837,21 @@
       <c r="E201" t="n">
         <v>-0.005217364206333763</v>
       </c>
+      <c r="G201" t="n">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="H201" t="n">
+        <v>-0.001373231258471205</v>
+      </c>
+      <c r="I201" t="n">
+        <v>-0.002118513824271312</v>
+      </c>
+      <c r="J201" t="n">
+        <v>-0.001015046320349266</v>
+      </c>
+      <c r="K201" t="n">
+        <v>-0.01164901652397537</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -3854,6 +6869,21 @@
       <c r="E202" t="n">
         <v>-0.00518779560229758</v>
       </c>
+      <c r="G202" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="H202" t="n">
+        <v>-0.001395336781766653</v>
+      </c>
+      <c r="I202" t="n">
+        <v>-0.002107596332816095</v>
+      </c>
+      <c r="J202" t="n">
+        <v>-0.001184764382237873</v>
+      </c>
+      <c r="K202" t="n">
+        <v>-0.01156788642923475</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -3871,6 +6901,21 @@
       <c r="E203" t="n">
         <v>-0.005218238633239662</v>
       </c>
+      <c r="G203" t="n">
+        <v>66.17</v>
+      </c>
+      <c r="H203" t="n">
+        <v>-0.001373693958911491</v>
+      </c>
+      <c r="I203" t="n">
+        <v>-0.002118372309300304</v>
+      </c>
+      <c r="J203" t="n">
+        <v>-0.001030721791268862</v>
+      </c>
+      <c r="K203" t="n">
+        <v>-0.0116494277206305</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -3888,6 +6933,21 @@
       <c r="E204" t="n">
         <v>-0.00518913256123891</v>
       </c>
+      <c r="G204" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="H204" t="n">
+        <v>-0.001395842410525582</v>
+      </c>
+      <c r="I204" t="n">
+        <v>-0.00210751542542774</v>
+      </c>
+      <c r="J204" t="n">
+        <v>-0.001198498129397785</v>
+      </c>
+      <c r="K204" t="n">
+        <v>-0.01157001965635752</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -3905,6 +6965,21 @@
       <c r="E205" t="n">
         <v>-0.00521925223026772</v>
       </c>
+      <c r="G205" t="n">
+        <v>66.83</v>
+      </c>
+      <c r="H205" t="n">
+        <v>-0.00137396600891343</v>
+      </c>
+      <c r="I205" t="n">
+        <v>-0.002118257033981774</v>
+      </c>
+      <c r="J205" t="n">
+        <v>-0.001038271635022317</v>
+      </c>
+      <c r="K205" t="n">
+        <v>-0.01165082649577178</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -3922,6 +6997,21 @@
       <c r="E206" t="n">
         <v>-0.005191497143395766</v>
       </c>
+      <c r="G206" t="n">
+        <v>67.16</v>
+      </c>
+      <c r="H206" t="n">
+        <v>-0.001396034420884899</v>
+      </c>
+      <c r="I206" t="n">
+        <v>-0.002107394089324651</v>
+      </c>
+      <c r="J206" t="n">
+        <v>-0.001200174067133326</v>
+      </c>
+      <c r="K206" t="n">
+        <v>-0.01157214814207506</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -3939,6 +7029,21 @@
       <c r="E207" t="n">
         <v>-0.005221608081046522</v>
       </c>
+      <c r="G207" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="H207" t="n">
+        <v>-0.001374473106017412</v>
+      </c>
+      <c r="I207" t="n">
+        <v>-0.002118293854902008</v>
+      </c>
+      <c r="J207" t="n">
+        <v>-0.001042139240051638</v>
+      </c>
+      <c r="K207" t="n">
+        <v>-0.01165264397120425</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -3956,6 +7061,21 @@
       <c r="E208" t="n">
         <v>-0.005194748765929557</v>
       </c>
+      <c r="G208" t="n">
+        <v>67.81999999999999</v>
+      </c>
+      <c r="H208" t="n">
+        <v>-0.001396907127519043</v>
+      </c>
+      <c r="I208" t="n">
+        <v>-0.002107662452122504</v>
+      </c>
+      <c r="J208" t="n">
+        <v>-0.001206939994034514</v>
+      </c>
+      <c r="K208" t="n">
+        <v>-0.01157528347448828</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -3973,6 +7093,21 @@
       <c r="E209" t="n">
         <v>-0.005224115771139901</v>
       </c>
+      <c r="G209" t="n">
+        <v>68.15000000000001</v>
+      </c>
+      <c r="H209" t="n">
+        <v>-0.001375404426858911</v>
+      </c>
+      <c r="I209" t="n">
+        <v>-0.002118475440894442</v>
+      </c>
+      <c r="J209" t="n">
+        <v>-0.001051381607941187</v>
+      </c>
+      <c r="K209" t="n">
+        <v>-0.01165322535979953</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -3990,6 +7125,21 @@
       <c r="E210" t="n">
         <v>-0.00519584954738771</v>
       </c>
+      <c r="G210" t="n">
+        <v>68.48</v>
+      </c>
+      <c r="H210" t="n">
+        <v>-0.001395845936491546</v>
+      </c>
+      <c r="I210" t="n">
+        <v>-0.00210784549682446</v>
+      </c>
+      <c r="J210" t="n">
+        <v>-0.001208162938191328</v>
+      </c>
+      <c r="K210" t="n">
+        <v>-0.01157666054259302</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -4007,6 +7157,21 @@
       <c r="E211" t="n">
         <v>-0.005222027216230746</v>
       </c>
+      <c r="G211" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="H211" t="n">
+        <v>-0.001373353268916929</v>
+      </c>
+      <c r="I211" t="n">
+        <v>-0.002117887005029127</v>
+      </c>
+      <c r="J211" t="n">
+        <v>-0.001054456728295989</v>
+      </c>
+      <c r="K211" t="n">
+        <v>-0.01164954346029123</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -4024,6 +7189,21 @@
       <c r="E212" t="n">
         <v>-0.005193067700856</v>
       </c>
+      <c r="G212" t="n">
+        <v>69.14</v>
+      </c>
+      <c r="H212" t="n">
+        <v>-0.001391529413772198</v>
+      </c>
+      <c r="I212" t="n">
+        <v>-0.002107239336544423</v>
+      </c>
+      <c r="J212" t="n">
+        <v>-0.001200446007787204</v>
+      </c>
+      <c r="K212" t="n">
+        <v>-0.01157425069662328</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -4041,6 +7221,21 @@
       <c r="E213" t="n">
         <v>-0.005219599161271403</v>
       </c>
+      <c r="G213" t="n">
+        <v>69.47</v>
+      </c>
+      <c r="H213" t="n">
+        <v>-0.001369177436241359</v>
+      </c>
+      <c r="I213" t="n">
+        <v>-0.002116909199389218</v>
+      </c>
+      <c r="J213" t="n">
+        <v>-0.001050059577809294</v>
+      </c>
+      <c r="K213" t="n">
+        <v>-0.01164430531721983</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -4058,6 +7253,21 @@
       <c r="E214" t="n">
         <v>-0.005192317924304034</v>
       </c>
+      <c r="G214" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="H214" t="n">
+        <v>-0.001387234420827632</v>
+      </c>
+      <c r="I214" t="n">
+        <v>-0.002106463686499336</v>
+      </c>
+      <c r="J214" t="n">
+        <v>-0.001192777064484007</v>
+      </c>
+      <c r="K214" t="n">
+        <v>-0.01157209857111249</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -4075,6 +7285,21 @@
       <c r="E215" t="n">
         <v>-0.005217959585680457</v>
       </c>
+      <c r="G215" t="n">
+        <v>70.13</v>
+      </c>
+      <c r="H215" t="n">
+        <v>-0.001365751592757335</v>
+      </c>
+      <c r="I215" t="n">
+        <v>-0.002115537452291498</v>
+      </c>
+      <c r="J215" t="n">
+        <v>-0.001046598087504517</v>
+      </c>
+      <c r="K215" t="n">
+        <v>-0.01163746618800308</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -4092,6 +7317,21 @@
       <c r="E216" t="n">
         <v>-0.005192452062200738</v>
       </c>
+      <c r="G216" t="n">
+        <v>70.45999999999999</v>
+      </c>
+      <c r="H216" t="n">
+        <v>-0.001383363791973286</v>
+      </c>
+      <c r="I216" t="n">
+        <v>-0.002105749713165503</v>
+      </c>
+      <c r="J216" t="n">
+        <v>-0.001185725992549051</v>
+      </c>
+      <c r="K216" t="n">
+        <v>-0.01156898613802052</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -4109,6 +7349,21 @@
       <c r="E217" t="n">
         <v>-0.005217119903722364</v>
       </c>
+      <c r="G217" t="n">
+        <v>70.79000000000001</v>
+      </c>
+      <c r="H217" t="n">
+        <v>-0.001364150367900269</v>
+      </c>
+      <c r="I217" t="n">
+        <v>-0.002114764735079142</v>
+      </c>
+      <c r="J217" t="n">
+        <v>-0.001061526847264824</v>
+      </c>
+      <c r="K217" t="n">
+        <v>-0.01163172798940623</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -4126,6 +7381,21 @@
       <c r="E218" t="n">
         <v>-0.005192970025804109</v>
       </c>
+      <c r="G218" t="n">
+        <v>71.12</v>
+      </c>
+      <c r="H218" t="n">
+        <v>-0.001380223988322841</v>
+      </c>
+      <c r="I218" t="n">
+        <v>-0.002105560583766561</v>
+      </c>
+      <c r="J218" t="n">
+        <v>-0.001189345343336792</v>
+      </c>
+      <c r="K218" t="n">
+        <v>-0.01156744031878816</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -4143,6 +7413,21 @@
       <c r="E219" t="n">
         <v>-0.005215206042257172</v>
       </c>
+      <c r="G219" t="n">
+        <v>71.45</v>
+      </c>
+      <c r="H219" t="n">
+        <v>-0.001362226918125912</v>
+      </c>
+      <c r="I219" t="n">
+        <v>-0.002114184328784029</v>
+      </c>
+      <c r="J219" t="n">
+        <v>-0.001071584530418974</v>
+      </c>
+      <c r="K219" t="n">
+        <v>-0.01162623851896638</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -4160,6 +7445,21 @@
       <c r="E220" t="n">
         <v>-0.005191034972638876</v>
       </c>
+      <c r="G220" t="n">
+        <v>71.78</v>
+      </c>
+      <c r="H220" t="n">
+        <v>-0.00137792785000219</v>
+      </c>
+      <c r="I220" t="n">
+        <v>-0.002105603051207511</v>
+      </c>
+      <c r="J220" t="n">
+        <v>-0.001192698077293384</v>
+      </c>
+      <c r="K220" t="n">
+        <v>-0.01156749150939315</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -4177,6 +7477,21 @@
       <c r="E221" t="n">
         <v>-0.005210519835595921</v>
       </c>
+      <c r="G221" t="n">
+        <v>72.11</v>
+      </c>
+      <c r="H221" t="n">
+        <v>-0.001360417181971268</v>
+      </c>
+      <c r="I221" t="n">
+        <v>-0.002113627659973342</v>
+      </c>
+      <c r="J221" t="n">
+        <v>-0.001076564047305141</v>
+      </c>
+      <c r="K221" t="n">
+        <v>-0.01162231946145999</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -4194,6 +7509,21 @@
       <c r="E222" t="n">
         <v>-0.005188525744392672</v>
       </c>
+      <c r="G222" t="n">
+        <v>72.44</v>
+      </c>
+      <c r="H222" t="n">
+        <v>-0.001374517590335835</v>
+      </c>
+      <c r="I222" t="n">
+        <v>-0.002105311780805614</v>
+      </c>
+      <c r="J222" t="n">
+        <v>-0.001187102331203823</v>
+      </c>
+      <c r="K222" t="n">
+        <v>-0.01156756499313494</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -4211,6 +7541,21 @@
       <c r="E223" t="n">
         <v>-0.005207284731573499</v>
       </c>
+      <c r="G223" t="n">
+        <v>72.77</v>
+      </c>
+      <c r="H223" t="n">
+        <v>-0.00135938696587992</v>
+      </c>
+      <c r="I223" t="n">
+        <v>-0.002112681030093154</v>
+      </c>
+      <c r="J223" t="n">
+        <v>-0.001092403195469954</v>
+      </c>
+      <c r="K223" t="n">
+        <v>-0.01161769829047423</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -4228,6 +7573,21 @@
       <c r="E224" t="n">
         <v>-0.005189474426663482</v>
       </c>
+      <c r="G224" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="H224" t="n">
+        <v>-0.001372892791963027</v>
+      </c>
+      <c r="I224" t="n">
+        <v>-0.002105359886215906</v>
+      </c>
+      <c r="J224" t="n">
+        <v>-0.00119749946639189</v>
+      </c>
+      <c r="K224" t="n">
+        <v>-0.01157049382274765</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -4245,6 +7605,21 @@
       <c r="E225" t="n">
         <v>-0.005207442587667568</v>
       </c>
+      <c r="G225" t="n">
+        <v>73.43000000000001</v>
+      </c>
+      <c r="H225" t="n">
+        <v>-0.001360176317179464</v>
+      </c>
+      <c r="I225" t="n">
+        <v>-0.002112221172810694</v>
+      </c>
+      <c r="J225" t="n">
+        <v>-0.001116922486807594</v>
+      </c>
+      <c r="K225" t="n">
+        <v>-0.01161581165407596</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -4262,6 +7637,21 @@
       <c r="E226" t="n">
         <v>-0.005192300971873882</v>
       </c>
+      <c r="G226" t="n">
+        <v>73.76000000000001</v>
+      </c>
+      <c r="H226" t="n">
+        <v>-0.001372156039845172</v>
+      </c>
+      <c r="I226" t="n">
+        <v>-0.002105519416667432</v>
+      </c>
+      <c r="J226" t="n">
+        <v>-0.001206206677883029</v>
+      </c>
+      <c r="K226" t="n">
+        <v>-0.01157395141558948</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -4279,6 +7669,21 @@
       <c r="E227" t="n">
         <v>-0.005208277068987151</v>
       </c>
+      <c r="G227" t="n">
+        <v>74.09</v>
+      </c>
+      <c r="H227" t="n">
+        <v>-0.001360408249054463</v>
+      </c>
+      <c r="I227" t="n">
+        <v>-0.002111560822687441</v>
+      </c>
+      <c r="J227" t="n">
+        <v>-0.001131653104794477</v>
+      </c>
+      <c r="K227" t="n">
+        <v>-0.01161304697057806</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -4296,6 +7701,21 @@
       <c r="E228" t="n">
         <v>-0.005195685928078503</v>
       </c>
+      <c r="G228" t="n">
+        <v>74.42</v>
+      </c>
+      <c r="H228" t="n">
+        <v>-0.001370854894933769</v>
+      </c>
+      <c r="I228" t="n">
+        <v>-0.002105777652289828</v>
+      </c>
+      <c r="J228" t="n">
+        <v>-0.001210641575086728</v>
+      </c>
+      <c r="K228" t="n">
+        <v>-0.01157781948574327</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -4313,6 +7733,21 @@
       <c r="E229" t="n">
         <v>-0.005208091694879636</v>
       </c>
+      <c r="G229" t="n">
+        <v>74.75</v>
+      </c>
+      <c r="H229" t="n">
+        <v>-0.001360477768679181</v>
+      </c>
+      <c r="I229" t="n">
+        <v>-0.00211089542715991</v>
+      </c>
+      <c r="J229" t="n">
+        <v>-0.001150696763620807</v>
+      </c>
+      <c r="K229" t="n">
+        <v>-0.0116089396982747</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -4330,6 +7765,21 @@
       <c r="E230" t="n">
         <v>-0.005197598281057332</v>
       </c>
+      <c r="G230" t="n">
+        <v>75.08</v>
+      </c>
+      <c r="H230" t="n">
+        <v>-0.00136840557198739</v>
+      </c>
+      <c r="I230" t="n">
+        <v>-0.002105825405998519</v>
+      </c>
+      <c r="J230" t="n">
+        <v>-0.001215396338594302</v>
+      </c>
+      <c r="K230" t="n">
+        <v>-0.01157902352495612</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -4347,6 +7797,21 @@
       <c r="E231" t="n">
         <v>-0.005205733793220045</v>
       </c>
+      <c r="G231" t="n">
+        <v>75.41</v>
+      </c>
+      <c r="H231" t="n">
+        <v>-0.001359009659385227</v>
+      </c>
+      <c r="I231" t="n">
+        <v>-0.002109595823051127</v>
+      </c>
+      <c r="J231" t="n">
+        <v>-0.001167667437621866</v>
+      </c>
+      <c r="K231" t="n">
+        <v>-0.01160085230130563</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -4364,6 +7829,21 @@
       <c r="E232" t="n">
         <v>-0.005196959920905452</v>
       </c>
+      <c r="G232" t="n">
+        <v>75.73999999999999</v>
+      </c>
+      <c r="H232" t="n">
+        <v>-0.00136358957420286</v>
+      </c>
+      <c r="I232" t="n">
+        <v>-0.002104936510805245</v>
+      </c>
+      <c r="J232" t="n">
+        <v>-0.001212324447546008</v>
+      </c>
+      <c r="K232" t="n">
+        <v>-0.01157615705691723</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -4381,6 +7861,21 @@
       <c r="E233" t="n">
         <v>-0.005202084326917768</v>
       </c>
+      <c r="G233" t="n">
+        <v>76.06999999999999</v>
+      </c>
+      <c r="H233" t="n">
+        <v>-0.001355265508290789</v>
+      </c>
+      <c r="I233" t="n">
+        <v>-0.002107414417494788</v>
+      </c>
+      <c r="J233" t="n">
+        <v>-0.001178550788409512</v>
+      </c>
+      <c r="K233" t="n">
+        <v>-0.01158902759651322</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -4398,6 +7893,21 @@
       <c r="E234" t="n">
         <v>-0.005196946312758372</v>
       </c>
+      <c r="G234" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="H234" t="n">
+        <v>-0.001358810616979893</v>
+      </c>
+      <c r="I234" t="n">
+        <v>-0.002103676622769614</v>
+      </c>
+      <c r="J234" t="n">
+        <v>-0.001217857174867935</v>
+      </c>
+      <c r="K234" t="n">
+        <v>-0.01157110776897971</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -4415,6 +7925,21 @@
       <c r="E235" t="n">
         <v>-0.005199684757349021</v>
       </c>
+      <c r="G235" t="n">
+        <v>76.73</v>
+      </c>
+      <c r="H235" t="n">
+        <v>-0.001351931999892227</v>
+      </c>
+      <c r="I235" t="n">
+        <v>-0.002105506355833383</v>
+      </c>
+      <c r="J235" t="n">
+        <v>-0.001194855212710664</v>
+      </c>
+      <c r="K235" t="n">
+        <v>-0.01157858945255415</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -4432,6 +7957,21 @@
       <c r="E236" t="n">
         <v>-0.005196567476237111</v>
       </c>
+      <c r="G236" t="n">
+        <v>77.06</v>
+      </c>
+      <c r="H236" t="n">
+        <v>-0.001353268299042688</v>
+      </c>
+      <c r="I236" t="n">
+        <v>-0.002102327097132782</v>
+      </c>
+      <c r="J236" t="n">
+        <v>-0.001214292719411325</v>
+      </c>
+      <c r="K236" t="n">
+        <v>-0.01156547365109526</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -4449,6 +7989,21 @@
       <c r="E237" t="n">
         <v>-0.005197077524060869</v>
       </c>
+      <c r="G237" t="n">
+        <v>77.39</v>
+      </c>
+      <c r="H237" t="n">
+        <v>-0.001348047124062597</v>
+      </c>
+      <c r="I237" t="n">
+        <v>-0.002103109528712251</v>
+      </c>
+      <c r="J237" t="n">
+        <v>-0.001200365399708102</v>
+      </c>
+      <c r="K237" t="n">
+        <v>-0.01156490900395515</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -4466,6 +8021,21 @@
       <c r="E238" t="n">
         <v>-0.005196734443120005</v>
       </c>
+      <c r="G238" t="n">
+        <v>77.72</v>
+      </c>
+      <c r="H238" t="n">
+        <v>-0.001348474543010594</v>
+      </c>
+      <c r="I238" t="n">
+        <v>-0.002100702222191709</v>
+      </c>
+      <c r="J238" t="n">
+        <v>-0.001213762780188175</v>
+      </c>
+      <c r="K238" t="n">
+        <v>-0.01155775276507847</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -4483,6 +8053,21 @@
       <c r="E239" t="n">
         <v>-0.005195016703026864</v>
       </c>
+      <c r="G239" t="n">
+        <v>78.05</v>
+      </c>
+      <c r="H239" t="n">
+        <v>-0.001345865700985209</v>
+      </c>
+      <c r="I239" t="n">
+        <v>-0.002100617075778441</v>
+      </c>
+      <c r="J239" t="n">
+        <v>-0.001223027847293018</v>
+      </c>
+      <c r="K239" t="n">
+        <v>-0.01155055135752626</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -4500,6 +8085,21 @@
       <c r="E240" t="n">
         <v>-0.005197657827161516</v>
       </c>
+      <c r="G240" t="n">
+        <v>78.38</v>
+      </c>
+      <c r="H240" t="n">
+        <v>-0.001345286857722085</v>
+      </c>
+      <c r="I240" t="n">
+        <v>-0.002099075021861197</v>
+      </c>
+      <c r="J240" t="n">
+        <v>-0.001230215704551188</v>
+      </c>
+      <c r="K240" t="n">
+        <v>-0.01155015337065919</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -4517,6 +8117,21 @@
       <c r="E241" t="n">
         <v>-0.00519256196490332</v>
       </c>
+      <c r="G241" t="n">
+        <v>78.70999999999999</v>
+      </c>
+      <c r="H241" t="n">
+        <v>-0.001344283600077493</v>
+      </c>
+      <c r="I241" t="n">
+        <v>-0.002098096640129493</v>
+      </c>
+      <c r="J241" t="n">
+        <v>-0.001250906577554408</v>
+      </c>
+      <c r="K241" t="n">
+        <v>-0.0115374346634042</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -4534,6 +8149,21 @@
       <c r="E242" t="n">
         <v>-0.005197151606090734</v>
       </c>
+      <c r="G242" t="n">
+        <v>79.04000000000001</v>
+      </c>
+      <c r="H242" t="n">
+        <v>-0.001341275195316885</v>
+      </c>
+      <c r="I242" t="n">
+        <v>-0.002096778520637302</v>
+      </c>
+      <c r="J242" t="n">
+        <v>-0.001237873989291068</v>
+      </c>
+      <c r="K242" t="n">
+        <v>-0.01154143167352049</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -4551,6 +8181,21 @@
       <c r="E243" t="n">
         <v>-0.005189995898571499</v>
       </c>
+      <c r="G243" t="n">
+        <v>79.37</v>
+      </c>
+      <c r="H243" t="n">
+        <v>-0.001342323903171076</v>
+      </c>
+      <c r="I243" t="n">
+        <v>-0.002094595410773191</v>
+      </c>
+      <c r="J243" t="n">
+        <v>-0.001271337839176516</v>
+      </c>
+      <c r="K243" t="n">
+        <v>-0.01152093657980541</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -4568,6 +8213,21 @@
       <c r="E244" t="n">
         <v>-0.005197944101362826</v>
       </c>
+      <c r="G244" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="H244" t="n">
+        <v>-0.001337901293568738</v>
+      </c>
+      <c r="I244" t="n">
+        <v>-0.002094335496478021</v>
+      </c>
+      <c r="J244" t="n">
+        <v>-0.001246770951773993</v>
+      </c>
+      <c r="K244" t="n">
+        <v>-0.01153344355302944</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -4585,6 +8245,21 @@
       <c r="E245" t="n">
         <v>-0.005188110753656254</v>
       </c>
+      <c r="G245" t="n">
+        <v>80.03</v>
+      </c>
+      <c r="H245" t="n">
+        <v>-0.001340379512999624</v>
+      </c>
+      <c r="I245" t="n">
+        <v>-0.002090918988764155</v>
+      </c>
+      <c r="J245" t="n">
+        <v>-0.001294049752373208</v>
+      </c>
+      <c r="K245" t="n">
+        <v>-0.01150380419732519</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -4602,6 +8277,21 @@
       <c r="E246" t="n">
         <v>-0.005198231482881924</v>
       </c>
+      <c r="G246" t="n">
+        <v>80.36</v>
+      </c>
+      <c r="H246" t="n">
+        <v>-0.001334358027461013</v>
+      </c>
+      <c r="I246" t="n">
+        <v>-0.002091067769988861</v>
+      </c>
+      <c r="J246" t="n">
+        <v>-0.00125825768937376</v>
+      </c>
+      <c r="K246" t="n">
+        <v>-0.01152076129090028</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -4619,6 +8309,21 @@
       <c r="E247" t="n">
         <v>-0.005185564525312757</v>
       </c>
+      <c r="G247" t="n">
+        <v>80.69</v>
+      </c>
+      <c r="H247" t="n">
+        <v>-0.001338601918249544</v>
+      </c>
+      <c r="I247" t="n">
+        <v>-0.002086468087149667</v>
+      </c>
+      <c r="J247" t="n">
+        <v>-0.001318797915345709</v>
+      </c>
+      <c r="K247" t="n">
+        <v>-0.01148292098224211</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -4636,6 +8341,21 @@
       <c r="E248" t="n">
         <v>-0.005197449776236748</v>
       </c>
+      <c r="G248" t="n">
+        <v>81.02</v>
+      </c>
+      <c r="H248" t="n">
+        <v>-0.001331210864571128</v>
+      </c>
+      <c r="I248" t="n">
+        <v>-0.002087057043613658</v>
+      </c>
+      <c r="J248" t="n">
+        <v>-0.001274822532176691</v>
+      </c>
+      <c r="K248" t="n">
+        <v>-0.01150379510858234</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -4653,6 +8373,21 @@
       <c r="E249" t="n">
         <v>-0.005181347641974116</v>
       </c>
+      <c r="G249" t="n">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="H249" t="n">
+        <v>-0.001336202387692232</v>
+      </c>
+      <c r="I249" t="n">
+        <v>-0.002081350705512634</v>
+      </c>
+      <c r="J249" t="n">
+        <v>-0.001344357734699088</v>
+      </c>
+      <c r="K249" t="n">
+        <v>-0.01145819807598338</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -4670,6 +8405,21 @@
       <c r="E250" t="n">
         <v>-0.005193097625604387</v>
       </c>
+      <c r="G250" t="n">
+        <v>81.68000000000001</v>
+      </c>
+      <c r="H250" t="n">
+        <v>-0.00132573222946919</v>
+      </c>
+      <c r="I250" t="n">
+        <v>-0.002082215122382364</v>
+      </c>
+      <c r="J250" t="n">
+        <v>-0.001282024654332076</v>
+      </c>
+      <c r="K250" t="n">
+        <v>-0.01148230470681678</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -4687,6 +8437,21 @@
       <c r="E251" t="n">
         <v>-0.005173033354261392</v>
       </c>
+      <c r="G251" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="H251" t="n">
+        <v>-0.001331031534167008</v>
+      </c>
+      <c r="I251" t="n">
+        <v>-0.002074979763144334</v>
+      </c>
+      <c r="J251" t="n">
+        <v>-0.001359967578846235</v>
+      </c>
+      <c r="K251" t="n">
+        <v>-0.0114266622311715</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -4704,6 +8469,21 @@
       <c r="E252" t="n">
         <v>-0.00518715749601824</v>
       </c>
+      <c r="G252" t="n">
+        <v>82.34</v>
+      </c>
+      <c r="H252" t="n">
+        <v>-0.001317565985667091</v>
+      </c>
+      <c r="I252" t="n">
+        <v>-0.002075885600057685</v>
+      </c>
+      <c r="J252" t="n">
+        <v>-0.001280755076002332</v>
+      </c>
+      <c r="K252" t="n">
+        <v>-0.01145341834045141</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -4721,6 +8501,21 @@
       <c r="E253" t="n">
         <v>-0.005165103815548412</v>
       </c>
+      <c r="G253" t="n">
+        <v>82.67</v>
+      </c>
+      <c r="H253" t="n">
+        <v>-0.001323724286465309</v>
+      </c>
+      <c r="I253" t="n">
+        <v>-0.002067150439338553</v>
+      </c>
+      <c r="J253" t="n">
+        <v>-0.001367752190441842</v>
+      </c>
+      <c r="K253" t="n">
+        <v>-0.01138928730402239</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -4738,6 +8533,21 @@
       <c r="E254" t="n">
         <v>-0.005181703610489145</v>
       </c>
+      <c r="G254" t="n">
+        <v>83</v>
+      </c>
+      <c r="H254" t="n">
+        <v>-0.001309264908692224</v>
+      </c>
+      <c r="I254" t="n">
+        <v>-0.002068272943814588</v>
+      </c>
+      <c r="J254" t="n">
+        <v>-0.0012824649551334</v>
+      </c>
+      <c r="K254" t="n">
+        <v>-0.01141872086406275</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -4755,6 +8565,21 @@
       <c r="E255" t="n">
         <v>-0.005158176849878768</v>
       </c>
+      <c r="G255" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="H255" t="n">
+        <v>-0.00131753461184684</v>
+      </c>
+      <c r="I255" t="n">
+        <v>-0.002058607850188581</v>
+      </c>
+      <c r="J255" t="n">
+        <v>-0.001386931124125367</v>
+      </c>
+      <c r="K255" t="n">
+        <v>-0.01134755592286815</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -4772,6 +8597,21 @@
       <c r="E256" t="n">
         <v>-0.005177735527334278</v>
       </c>
+      <c r="G256" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="H256" t="n">
+        <v>-0.001302995072443838</v>
+      </c>
+      <c r="I256" t="n">
+        <v>-0.002060116658130798</v>
+      </c>
+      <c r="J256" t="n">
+        <v>-0.00130370691657432</v>
+      </c>
+      <c r="K256" t="n">
+        <v>-0.01138004362375289</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -4789,6 +8629,21 @@
       <c r="E257" t="n">
         <v>-0.005152051721850966</v>
       </c>
+      <c r="G257" t="n">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="H257" t="n">
+        <v>-0.001311420530046987</v>
+      </c>
+      <c r="I257" t="n">
+        <v>-0.002049193384959948</v>
+      </c>
+      <c r="J257" t="n">
+        <v>-0.001411091081535836</v>
+      </c>
+      <c r="K257" t="n">
+        <v>-0.01130108671728405</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -4806,6 +8661,21 @@
       <c r="E258" t="n">
         <v>-0.005170488512750133</v>
       </c>
+      <c r="G258" t="n">
+        <v>84.31999999999999</v>
+      </c>
+      <c r="H258" t="n">
+        <v>-0.001295248439024722</v>
+      </c>
+      <c r="I258" t="n">
+        <v>-0.002050381218772269</v>
+      </c>
+      <c r="J258" t="n">
+        <v>-0.001315840884501461</v>
+      </c>
+      <c r="K258" t="n">
+        <v>-0.01133304068961082</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -4823,6 +8693,21 @@
       <c r="E259" t="n">
         <v>-0.005143003388429469</v>
       </c>
+      <c r="G259" t="n">
+        <v>84.65000000000001</v>
+      </c>
+      <c r="H259" t="n">
+        <v>-0.001305807619168957</v>
+      </c>
+      <c r="I259" t="n">
+        <v>-0.00203861149163261</v>
+      </c>
+      <c r="J259" t="n">
+        <v>-0.001438329148111125</v>
+      </c>
+      <c r="K259" t="n">
+        <v>-0.01124902715850317</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -4840,6 +8725,21 @@
       <c r="E260" t="n">
         <v>-0.005161166329411369</v>
       </c>
+      <c r="G260" t="n">
+        <v>84.98</v>
+      </c>
+      <c r="H260" t="n">
+        <v>-0.001288250286277069</v>
+      </c>
+      <c r="I260" t="n">
+        <v>-0.002039791375623696</v>
+      </c>
+      <c r="J260" t="n">
+        <v>-0.001333694666390833</v>
+      </c>
+      <c r="K260" t="n">
+        <v>-0.01128295755904029</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -4857,6 +8757,21 @@
       <c r="E261" t="n">
         <v>-0.005130463321231997</v>
       </c>
+      <c r="G261" t="n">
+        <v>85.31</v>
+      </c>
+      <c r="H261" t="n">
+        <v>-0.001298761346565238</v>
+      </c>
+      <c r="I261" t="n">
+        <v>-0.002026695351481853</v>
+      </c>
+      <c r="J261" t="n">
+        <v>-0.001457371158167485</v>
+      </c>
+      <c r="K261" t="n">
+        <v>-0.01119311675338582</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -4874,6 +8789,21 @@
       <c r="E262" t="n">
         <v>-0.005151368371429835</v>
       </c>
+      <c r="G262" t="n">
+        <v>85.64</v>
+      </c>
+      <c r="H262" t="n">
+        <v>-0.001280515325524467</v>
+      </c>
+      <c r="I262" t="n">
+        <v>-0.002027556600477431</v>
+      </c>
+      <c r="J262" t="n">
+        <v>-0.001348291464009005</v>
+      </c>
+      <c r="K262" t="n">
+        <v>-0.0112281093585128</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -4891,6 +8821,21 @@
       <c r="E263" t="n">
         <v>-0.005119338194408911</v>
       </c>
+      <c r="G263" t="n">
+        <v>85.97</v>
+      </c>
+      <c r="H263" t="n">
+        <v>-0.001293037129662802</v>
+      </c>
+      <c r="I263" t="n">
+        <v>-0.002013172357970368</v>
+      </c>
+      <c r="J263" t="n">
+        <v>-0.00148708644735314</v>
+      </c>
+      <c r="K263" t="n">
+        <v>-0.01113057392269772</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -4908,6 +8853,21 @@
       <c r="E264" t="n">
         <v>-0.005141102719670328</v>
       </c>
+      <c r="G264" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="H264" t="n">
+        <v>-0.001274699938852343</v>
+      </c>
+      <c r="I264" t="n">
+        <v>-0.002013914491603536</v>
+      </c>
+      <c r="J264" t="n">
+        <v>-0.001378260705949671</v>
+      </c>
+      <c r="K264" t="n">
+        <v>-0.01116648133199687</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -4925,6 +8885,21 @@
       <c r="E265" t="n">
         <v>-0.005108038942113967</v>
       </c>
+      <c r="G265" t="n">
+        <v>86.63</v>
+      </c>
+      <c r="H265" t="n">
+        <v>-0.001287865222428565</v>
+      </c>
+      <c r="I265" t="n">
+        <v>-0.001998137324897016</v>
+      </c>
+      <c r="J265" t="n">
+        <v>-0.00152372873756583</v>
+      </c>
+      <c r="K265" t="n">
+        <v>-0.01106181007148684</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -4942,6 +8917,21 @@
       <c r="E266" t="n">
         <v>-0.005130198116582771</v>
       </c>
+      <c r="G266" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="H266" t="n">
+        <v>-0.0012673514976116</v>
+      </c>
+      <c r="I266" t="n">
+        <v>-0.00199799029235334</v>
+      </c>
+      <c r="J266" t="n">
+        <v>-0.001402039669625069</v>
+      </c>
+      <c r="K266" t="n">
+        <v>-0.011094938467578</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -4959,6 +8949,21 @@
       <c r="E267" t="n">
         <v>-0.005095646857847229</v>
       </c>
+      <c r="G267" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="H267" t="n">
+        <v>-0.00128052666576199</v>
+      </c>
+      <c r="I267" t="n">
+        <v>-0.00198080564709849</v>
+      </c>
+      <c r="J267" t="n">
+        <v>-0.00154906779233656</v>
+      </c>
+      <c r="K267" t="n">
+        <v>-0.01098305598774213</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -4976,6 +8981,21 @@
       <c r="E268" t="n">
         <v>-0.00511812961741419</v>
       </c>
+      <c r="G268" t="n">
+        <v>87.62</v>
+      </c>
+      <c r="H268" t="n">
+        <v>-0.001259799475455382</v>
+      </c>
+      <c r="I268" t="n">
+        <v>-0.001980071204548873</v>
+      </c>
+      <c r="J268" t="n">
+        <v>-0.00142642534308291</v>
+      </c>
+      <c r="K268" t="n">
+        <v>-0.01101434719628009</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -4993,6 +9013,21 @@
       <c r="E269" t="n">
         <v>-0.005080576739590675</v>
       </c>
+      <c r="G269" t="n">
+        <v>87.95</v>
+      </c>
+      <c r="H269" t="n">
+        <v>-0.001273179604632548</v>
+      </c>
+      <c r="I269" t="n">
+        <v>-0.001961397202633224</v>
+      </c>
+      <c r="J269" t="n">
+        <v>-0.00157961679335873</v>
+      </c>
+      <c r="K269" t="n">
+        <v>-0.01089468560594893</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -5010,6 +9045,21 @@
       <c r="E270" t="n">
         <v>-0.005100937863619395</v>
       </c>
+      <c r="G270" t="n">
+        <v>88.28</v>
+      </c>
+      <c r="H270" t="n">
+        <v>-0.001251069199192103</v>
+      </c>
+      <c r="I270" t="n">
+        <v>-0.001959488710652494</v>
+      </c>
+      <c r="J270" t="n">
+        <v>-0.00145319364924643</v>
+      </c>
+      <c r="K270" t="n">
+        <v>-0.010920441948633</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -5027,6 +9077,21 @@
       <c r="E271" t="n">
         <v>-0.005059264916367501</v>
       </c>
+      <c r="G271" t="n">
+        <v>88.61</v>
+      </c>
+      <c r="H271" t="n">
+        <v>-0.001264218930756902</v>
+      </c>
+      <c r="I271" t="n">
+        <v>-0.00193905899120805</v>
+      </c>
+      <c r="J271" t="n">
+        <v>-0.001612226680791606</v>
+      </c>
+      <c r="K271" t="n">
+        <v>-0.01079084967161877</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -5044,6 +9109,21 @@
       <c r="E272" t="n">
         <v>-0.005080241230040637</v>
       </c>
+      <c r="G272" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="H272" t="n">
+        <v>-0.001240463257333706</v>
+      </c>
+      <c r="I272" t="n">
+        <v>-0.001936080548744383</v>
+      </c>
+      <c r="J272" t="n">
+        <v>-0.001482304610342183</v>
+      </c>
+      <c r="K272" t="n">
+        <v>-0.01081145840253526</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -5061,6 +9141,21 @@
       <c r="E273" t="n">
         <v>-0.005036957167416234</v>
       </c>
+      <c r="G273" t="n">
+        <v>89.27</v>
+      </c>
+      <c r="H273" t="n">
+        <v>-0.001252914234623648</v>
+      </c>
+      <c r="I273" t="n">
+        <v>-0.001914006687340778</v>
+      </c>
+      <c r="J273" t="n">
+        <v>-0.001646514867397721</v>
+      </c>
+      <c r="K273" t="n">
+        <v>-0.01067213805821845</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -5078,6 +9173,21 @@
       <c r="E274" t="n">
         <v>-0.005057757973970478</v>
       </c>
+      <c r="G274" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="H274" t="n">
+        <v>-0.001228589766240982</v>
+      </c>
+      <c r="I274" t="n">
+        <v>-0.001909606032618612</v>
+      </c>
+      <c r="J274" t="n">
+        <v>-0.001518956003353643</v>
+      </c>
+      <c r="K274" t="n">
+        <v>-0.01068527235715605</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -5095,6 +9205,21 @@
       <c r="E275" t="n">
         <v>-0.005012703293520035</v>
       </c>
+      <c r="G275" t="n">
+        <v>89.93000000000001</v>
+      </c>
+      <c r="H275" t="n">
+        <v>-0.001240548982336398</v>
+      </c>
+      <c r="I275" t="n">
+        <v>-0.001885842121303646</v>
+      </c>
+      <c r="J275" t="n">
+        <v>-0.001685435116662111</v>
+      </c>
+      <c r="K275" t="n">
+        <v>-0.01053703133762897</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -5112,6 +9237,21 @@
       <c r="E276" t="n">
         <v>-0.005031941482542785</v>
       </c>
+      <c r="G276" t="n">
+        <v>90.26000000000001</v>
+      </c>
+      <c r="H276" t="n">
+        <v>-0.001215718404770608</v>
+      </c>
+      <c r="I276" t="n">
+        <v>-0.001879701957830783</v>
+      </c>
+      <c r="J276" t="n">
+        <v>-0.001563473466300236</v>
+      </c>
+      <c r="K276" t="n">
+        <v>-0.01054114714968043</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -5129,6 +9269,21 @@
       <c r="E277" t="n">
         <v>-0.004984741810164666</v>
       </c>
+      <c r="G277" t="n">
+        <v>90.59</v>
+      </c>
+      <c r="H277" t="n">
+        <v>-0.001226425287868831</v>
+      </c>
+      <c r="I277" t="n">
+        <v>-0.00185396695874954</v>
+      </c>
+      <c r="J277" t="n">
+        <v>-0.001729333487883799</v>
+      </c>
+      <c r="K277" t="n">
+        <v>-0.01038384519218166</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -5146,6 +9301,21 @@
       <c r="E278" t="n">
         <v>-0.005000727096845968</v>
       </c>
+      <c r="G278" t="n">
+        <v>90.92</v>
+      </c>
+      <c r="H278" t="n">
+        <v>-0.001200846965626906</v>
+      </c>
+      <c r="I278" t="n">
+        <v>-0.00184566410724167</v>
+      </c>
+      <c r="J278" t="n">
+        <v>-0.001606522248624605</v>
+      </c>
+      <c r="K278" t="n">
+        <v>-0.01037783554839682</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -5163,6 +9333,21 @@
       <c r="E279" t="n">
         <v>-0.004950712747347862</v>
       </c>
+      <c r="G279" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="H279" t="n">
+        <v>-0.001212468051771986</v>
+      </c>
+      <c r="I279" t="n">
+        <v>-0.001817839148827691</v>
+      </c>
+      <c r="J279" t="n">
+        <v>-0.001780602090660004</v>
+      </c>
+      <c r="K279" t="n">
+        <v>-0.0102112449442014</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -5180,6 +9365,21 @@
       <c r="E280" t="n">
         <v>-0.004963048481194881</v>
       </c>
+      <c r="G280" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="H280" t="n">
+        <v>-0.00118593851762363</v>
+      </c>
+      <c r="I280" t="n">
+        <v>-0.001807536862128228</v>
+      </c>
+      <c r="J280" t="n">
+        <v>-0.001661470697852577</v>
+      </c>
+      <c r="K280" t="n">
+        <v>-0.01019419648762198</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -5197,6 +9397,21 @@
       <c r="E281" t="n">
         <v>-0.004909727038934653</v>
       </c>
+      <c r="G281" t="n">
+        <v>91.91</v>
+      </c>
+      <c r="H281" t="n">
+        <v>-0.001196115173101691</v>
+      </c>
+      <c r="I281" t="n">
+        <v>-0.001777180003567675</v>
+      </c>
+      <c r="J281" t="n">
+        <v>-0.00183610502797658</v>
+      </c>
+      <c r="K281" t="n">
+        <v>-0.0100149225126457</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -5214,6 +9429,21 @@
       <c r="E282" t="n">
         <v>-0.004918945869346758</v>
       </c>
+      <c r="G282" t="n">
+        <v>92.23999999999999</v>
+      </c>
+      <c r="H282" t="n">
+        <v>-0.001168900500392815</v>
+      </c>
+      <c r="I282" t="n">
+        <v>-0.001764048879376458</v>
+      </c>
+      <c r="J282" t="n">
+        <v>-0.001721412979310402</v>
+      </c>
+      <c r="K282" t="n">
+        <v>-0.00998601997328945</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -5231,6 +9461,21 @@
       <c r="E283" t="n">
         <v>-0.004864160965833989</v>
       </c>
+      <c r="G283" t="n">
+        <v>92.56999999999999</v>
+      </c>
+      <c r="H283" t="n">
+        <v>-0.001180820795661421</v>
+      </c>
+      <c r="I283" t="n">
+        <v>-0.001730621002608681</v>
+      </c>
+      <c r="J283" t="n">
+        <v>-0.001907680451512398</v>
+      </c>
+      <c r="K283" t="n">
+        <v>-0.009794178216323581</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -5248,6 +9493,21 @@
       <c r="E284" t="n">
         <v>-0.004869343579846602</v>
       </c>
+      <c r="G284" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="H284" t="n">
+        <v>-0.001154263936879766</v>
+      </c>
+      <c r="I284" t="n">
+        <v>-0.001714628978717241</v>
+      </c>
+      <c r="J284" t="n">
+        <v>-0.001805092442868577</v>
+      </c>
+      <c r="K284" t="n">
+        <v>-0.009751974691313045</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -5265,6 +9525,21 @@
       <c r="E285" t="n">
         <v>-0.0048109467597504</v>
       </c>
+      <c r="G285" t="n">
+        <v>93.23</v>
+      </c>
+      <c r="H285" t="n">
+        <v>-0.001165046296681477</v>
+      </c>
+      <c r="I285" t="n">
+        <v>-0.001677528145016793</v>
+      </c>
+      <c r="J285" t="n">
+        <v>-0.001997246798159975</v>
+      </c>
+      <c r="K285" t="n">
+        <v>-0.009542549843717612</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -5282,6 +9557,21 @@
       <c r="E286" t="n">
         <v>-0.004810094516355124</v>
       </c>
+      <c r="G286" t="n">
+        <v>93.56</v>
+      </c>
+      <c r="H286" t="n">
+        <v>-0.001135550165593041</v>
+      </c>
+      <c r="I286" t="n">
+        <v>-0.001658057974266824</v>
+      </c>
+      <c r="J286" t="n">
+        <v>-0.001892267435651162</v>
+      </c>
+      <c r="K286" t="n">
+        <v>-0.009482114481384014</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -5299,6 +9589,21 @@
       <c r="E287" t="n">
         <v>-0.004746139928197815</v>
       </c>
+      <c r="G287" t="n">
+        <v>93.89</v>
+      </c>
+      <c r="H287" t="n">
+        <v>-0.001144592896478243</v>
+      </c>
+      <c r="I287" t="n">
+        <v>-0.001617137062555427</v>
+      </c>
+      <c r="J287" t="n">
+        <v>-0.002095842300644966</v>
+      </c>
+      <c r="K287" t="n">
+        <v>-0.009253413403712992</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -5316,6 +9621,21 @@
       <c r="E288" t="n">
         <v>-0.004738143375857937</v>
       </c>
+      <c r="G288" t="n">
+        <v>94.22</v>
+      </c>
+      <c r="H288" t="n">
+        <v>-0.001112511976427522</v>
+      </c>
+      <c r="I288" t="n">
+        <v>-0.001593929729991277</v>
+      </c>
+      <c r="J288" t="n">
+        <v>-0.001998543561817821</v>
+      </c>
+      <c r="K288" t="n">
+        <v>-0.009172194831785038</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -5333,6 +9653,21 @@
       <c r="E289" t="n">
         <v>-0.004663965199237379</v>
       </c>
+      <c r="G289" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="H289" t="n">
+        <v>-0.001119405801869067</v>
+      </c>
+      <c r="I289" t="n">
+        <v>-0.001548194738952506</v>
+      </c>
+      <c r="J289" t="n">
+        <v>-0.002213804805644956</v>
+      </c>
+      <c r="K289" t="n">
+        <v>-0.008918760808241917</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -5350,6 +9685,21 @@
       <c r="E290" t="n">
         <v>-0.004644845339959108</v>
       </c>
+      <c r="G290" t="n">
+        <v>94.88</v>
+      </c>
+      <c r="H290" t="n">
+        <v>-0.001085105223958485</v>
+      </c>
+      <c r="I290" t="n">
+        <v>-0.001518762303658851</v>
+      </c>
+      <c r="J290" t="n">
+        <v>-0.002119945414859713</v>
+      </c>
+      <c r="K290" t="n">
+        <v>-0.00881500860859938</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -5367,6 +9717,21 @@
       <c r="E291" t="n">
         <v>-0.004559651404283046</v>
       </c>
+      <c r="G291" t="n">
+        <v>95.20999999999999</v>
+      </c>
+      <c r="H291" t="n">
+        <v>-0.001092372774205134</v>
+      </c>
+      <c r="I291" t="n">
+        <v>-0.001464959175723273</v>
+      </c>
+      <c r="J291" t="n">
+        <v>-0.002334788775753596</v>
+      </c>
+      <c r="K291" t="n">
+        <v>-0.008540455122446024</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -5384,6 +9749,21 @@
       <c r="E292" t="n">
         <v>-0.004530725200805058</v>
       </c>
+      <c r="G292" t="n">
+        <v>95.54000000000001</v>
+      </c>
+      <c r="H292" t="n">
+        <v>-0.00105593436220632</v>
+      </c>
+      <c r="I292" t="n">
+        <v>-0.00142823190345701</v>
+      </c>
+      <c r="J292" t="n">
+        <v>-0.002232855564618014</v>
+      </c>
+      <c r="K292" t="n">
+        <v>-0.008415755860056013</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -5401,6 +9781,21 @@
       <c r="E293" t="n">
         <v>-0.004438243440257846</v>
       </c>
+      <c r="G293" t="n">
+        <v>95.87</v>
+      </c>
+      <c r="H293" t="n">
+        <v>-0.001060831492556436</v>
+      </c>
+      <c r="I293" t="n">
+        <v>-0.001366642767036348</v>
+      </c>
+      <c r="J293" t="n">
+        <v>-0.002450320670420871</v>
+      </c>
+      <c r="K293" t="n">
+        <v>-0.008116670670002568</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -5418,6 +9813,21 @@
       <c r="E294" t="n">
         <v>-0.004401062997413188</v>
       </c>
+      <c r="G294" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="H294" t="n">
+        <v>-0.001019826757500848</v>
+      </c>
+      <c r="I294" t="n">
+        <v>-0.001324155224188348</v>
+      </c>
+      <c r="J294" t="n">
+        <v>-0.002338470521293147</v>
+      </c>
+      <c r="K294" t="n">
+        <v>-0.007967277259432828</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -5435,6 +9845,21 @@
       <c r="E295" t="n">
         <v>-0.004297782389789779</v>
       </c>
+      <c r="G295" t="n">
+        <v>96.53</v>
+      </c>
+      <c r="H295" t="n">
+        <v>-0.001016538372593068</v>
+      </c>
+      <c r="I295" t="n">
+        <v>-0.001257917439667074</v>
+      </c>
+      <c r="J295" t="n">
+        <v>-0.002577136852061706</v>
+      </c>
+      <c r="K295" t="n">
+        <v>-0.007634836188538534</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -5452,6 +9877,21 @@
       <c r="E296" t="n">
         <v>-0.004244950618206636</v>
       </c>
+      <c r="G296" t="n">
+        <v>96.86</v>
+      </c>
+      <c r="H296" t="n">
+        <v>-0.0009625967115080757</v>
+      </c>
+      <c r="I296" t="n">
+        <v>-0.001212799139605146</v>
+      </c>
+      <c r="J296" t="n">
+        <v>-0.00250848037613911</v>
+      </c>
+      <c r="K296" t="n">
+        <v>-0.007448528790505417</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -5469,6 +9909,21 @@
       <c r="E297" t="n">
         <v>-0.004122084992424965</v>
       </c>
+      <c r="G297" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="H297" t="n">
+        <v>-0.0009485515906949137</v>
+      </c>
+      <c r="I297" t="n">
+        <v>-0.001141352645519307</v>
+      </c>
+      <c r="J297" t="n">
+        <v>-0.002770294941734734</v>
+      </c>
+      <c r="K297" t="n">
+        <v>-0.007086836669296302</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -5486,6 +9941,21 @@
       <c r="E298" t="n">
         <v>-0.00405562755847133</v>
       </c>
+      <c r="G298" t="n">
+        <v>97.52</v>
+      </c>
+      <c r="H298" t="n">
+        <v>-0.0008776172045518864</v>
+      </c>
+      <c r="I298" t="n">
+        <v>-0.00108840802250712</v>
+      </c>
+      <c r="J298" t="n">
+        <v>-0.002681229011130859</v>
+      </c>
+      <c r="K298" t="n">
+        <v>-0.006878807240383883</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -5503,6 +9973,21 @@
       <c r="E299" t="n">
         <v>-0.003916810065526577</v>
       </c>
+      <c r="G299" t="n">
+        <v>97.84999999999999</v>
+      </c>
+      <c r="H299" t="n">
+        <v>-0.000830985195327982</v>
+      </c>
+      <c r="I299" t="n">
+        <v>-0.001005083940462614</v>
+      </c>
+      <c r="J299" t="n">
+        <v>-0.002880677418404158</v>
+      </c>
+      <c r="K299" t="n">
+        <v>-0.006498982488980633</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -5520,6 +10005,21 @@
       <c r="E300" t="n">
         <v>-0.003867895834406828</v>
       </c>
+      <c r="G300" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="H300" t="n">
+        <v>-0.0007129418199711071</v>
+      </c>
+      <c r="I300" t="n">
+        <v>-0.0009265671653466001</v>
+      </c>
+      <c r="J300" t="n">
+        <v>-0.002587817129523183</v>
+      </c>
+      <c r="K300" t="n">
+        <v>-0.006296381534835118</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -5537,6 +10037,21 @@
       <c r="E301" t="n">
         <v>-0.003798725872499911</v>
       </c>
+      <c r="G301" t="n">
+        <v>98.51000000000001</v>
+      </c>
+      <c r="H301" t="n">
+        <v>-0.0006199741281880286</v>
+      </c>
+      <c r="I301" t="n">
+        <v>-0.0007924901565665169</v>
+      </c>
+      <c r="J301" t="n">
+        <v>-0.002333328994831242</v>
+      </c>
+      <c r="K301" t="n">
+        <v>-0.006008495617146013</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -5554,6 +10069,21 @@
       <c r="E302" t="n">
         <v>-0.003813024094414412</v>
       </c>
+      <c r="G302" t="n">
+        <v>98.84</v>
+      </c>
+      <c r="H302" t="n">
+        <v>-0.0005448778594268118</v>
+      </c>
+      <c r="I302" t="n">
+        <v>-0.0006241862261336415</v>
+      </c>
+      <c r="J302" t="n">
+        <v>-0.001684880785040078</v>
+      </c>
+      <c r="K302" t="n">
+        <v>-0.006026328139444826</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -5571,6 +10101,21 @@
       <c r="E303" t="n">
         <v>-0.003823148175242265</v>
       </c>
+      <c r="G303" t="n">
+        <v>99.17</v>
+      </c>
+      <c r="H303" t="n">
+        <v>-0.0007584616828061512</v>
+      </c>
+      <c r="I303" t="n">
+        <v>-0.0003634839809552447</v>
+      </c>
+      <c r="J303" t="n">
+        <v>-0.002367572881847782</v>
+      </c>
+      <c r="K303" t="n">
+        <v>-0.0062597520471478</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -5588,6 +10133,21 @@
       <c r="E304" t="n">
         <v>-0.004291365022067709</v>
       </c>
+      <c r="G304" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="H304" t="n">
+        <v>-0.001147021352619425</v>
+      </c>
+      <c r="I304" t="n">
+        <v>-0.0001131439031509511</v>
+      </c>
+      <c r="J304" t="n">
+        <v>-0.003740052177925494</v>
+      </c>
+      <c r="K304" t="n">
+        <v>-0.007192768298873066</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -5604,6 +10164,21 @@
       </c>
       <c r="E305" t="n">
         <v>-0.005359592152350362</v>
+      </c>
+      <c r="G305" t="n">
+        <v>99.83</v>
+      </c>
+      <c r="H305" t="n">
+        <v>-0.001504293556184367</v>
+      </c>
+      <c r="I305" t="n">
+        <v>-0.000121595152088899</v>
+      </c>
+      <c r="J305" t="n">
+        <v>-0.005236921065270106</v>
+      </c>
+      <c r="K305" t="n">
+        <v>-0.007707582083060539</v>
       </c>
     </row>
   </sheetData>
